--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -492,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -512,12 +512,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -58558,2742 +58552,6 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="7" t="str">
-        <f t="shared" ref="A139:A154" si="1">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="8"/>
-      <c r="J139" s="8"/>
-      <c r="K139" s="8"/>
-      <c r="L139" s="8"/>
-      <c r="M139" s="8"/>
-      <c r="N139" s="8"/>
-      <c r="O139" s="8"/>
-      <c r="P139" s="8"/>
-      <c r="Q139" s="8"/>
-      <c r="R139" s="8"/>
-      <c r="S139" s="8"/>
-      <c r="T139" s="8"/>
-      <c r="U139" s="8"/>
-      <c r="V139" s="8"/>
-      <c r="W139" s="8"/>
-      <c r="X139" s="8"/>
-      <c r="Y139" s="8"/>
-      <c r="Z139" s="8"/>
-      <c r="AA139" s="8"/>
-      <c r="AB139" s="8"/>
-      <c r="AC139" s="8"/>
-      <c r="AD139" s="8"/>
-      <c r="AE139" s="8"/>
-      <c r="AF139" s="8"/>
-      <c r="AG139" s="8"/>
-      <c r="AH139" s="8"/>
-      <c r="AI139" s="8"/>
-      <c r="AJ139" s="8"/>
-      <c r="AK139" s="8"/>
-      <c r="AL139" s="8"/>
-      <c r="AM139" s="8"/>
-      <c r="AN139" s="8"/>
-      <c r="AO139" s="8"/>
-      <c r="AP139" s="8"/>
-      <c r="AQ139" s="8"/>
-      <c r="AR139" s="8"/>
-      <c r="AS139" s="8"/>
-      <c r="AT139" s="8"/>
-      <c r="AU139" s="8"/>
-      <c r="AV139" s="8"/>
-      <c r="AW139" s="8"/>
-      <c r="AX139" s="8"/>
-      <c r="AY139" s="8"/>
-      <c r="AZ139" s="8"/>
-      <c r="BA139" s="8"/>
-      <c r="BB139" s="8"/>
-      <c r="BC139" s="8"/>
-      <c r="BD139" s="8"/>
-      <c r="BE139" s="8"/>
-      <c r="BF139" s="8"/>
-      <c r="BG139" s="8"/>
-      <c r="BH139" s="8"/>
-      <c r="BI139" s="8"/>
-      <c r="BJ139" s="8"/>
-      <c r="BK139" s="8"/>
-      <c r="BL139" s="8"/>
-      <c r="BM139" s="8"/>
-      <c r="BN139" s="8"/>
-      <c r="BO139" s="8"/>
-      <c r="BP139" s="8"/>
-      <c r="BQ139" s="8"/>
-      <c r="BR139" s="8"/>
-      <c r="BS139" s="8"/>
-      <c r="BT139" s="8"/>
-      <c r="BU139" s="8"/>
-      <c r="BV139" s="8"/>
-      <c r="BW139" s="8"/>
-      <c r="BX139" s="8"/>
-      <c r="BY139" s="8"/>
-      <c r="BZ139" s="8"/>
-      <c r="CA139" s="8"/>
-      <c r="CB139" s="8"/>
-      <c r="CC139" s="8"/>
-      <c r="CD139" s="8"/>
-      <c r="CE139" s="8"/>
-      <c r="CF139" s="8"/>
-      <c r="CG139" s="8"/>
-      <c r="CH139" s="8"/>
-      <c r="CI139" s="8"/>
-      <c r="CJ139" s="8"/>
-      <c r="CK139" s="8"/>
-      <c r="CL139" s="8"/>
-      <c r="CM139" s="8"/>
-      <c r="CN139" s="8"/>
-      <c r="CO139" s="8"/>
-      <c r="CP139" s="8"/>
-      <c r="CQ139" s="8"/>
-      <c r="CR139" s="8"/>
-      <c r="CS139" s="8"/>
-      <c r="CT139" s="8"/>
-      <c r="CU139" s="8"/>
-      <c r="CV139" s="8"/>
-      <c r="CW139" s="8"/>
-      <c r="CX139" s="8"/>
-      <c r="CY139" s="8"/>
-      <c r="CZ139" s="8"/>
-      <c r="DA139" s="8"/>
-      <c r="DB139" s="8"/>
-      <c r="DC139" s="8"/>
-      <c r="DD139" s="8"/>
-      <c r="DE139" s="8"/>
-      <c r="DF139" s="8"/>
-      <c r="DG139" s="8"/>
-      <c r="DH139" s="8"/>
-      <c r="DI139" s="8"/>
-      <c r="DJ139" s="8"/>
-      <c r="DK139" s="8"/>
-      <c r="DL139" s="8"/>
-      <c r="DM139" s="8"/>
-      <c r="DN139" s="8"/>
-      <c r="DO139" s="8"/>
-      <c r="DP139" s="8"/>
-      <c r="DQ139" s="8"/>
-      <c r="DR139" s="8"/>
-      <c r="DS139" s="8"/>
-      <c r="DT139" s="8"/>
-      <c r="DU139" s="8"/>
-      <c r="DV139" s="8"/>
-      <c r="DW139" s="8"/>
-      <c r="DX139" s="8"/>
-      <c r="DY139" s="8"/>
-      <c r="DZ139" s="8"/>
-      <c r="EA139" s="8"/>
-      <c r="EB139" s="8"/>
-      <c r="EC139" s="8"/>
-      <c r="ED139" s="8"/>
-      <c r="EE139" s="8"/>
-      <c r="EF139" s="8"/>
-      <c r="EG139" s="8"/>
-      <c r="EH139" s="8"/>
-      <c r="EI139" s="8"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="K140" s="8"/>
-      <c r="L140" s="8"/>
-      <c r="M140" s="8"/>
-      <c r="N140" s="8"/>
-      <c r="O140" s="8"/>
-      <c r="P140" s="8"/>
-      <c r="Q140" s="8"/>
-      <c r="R140" s="8"/>
-      <c r="S140" s="8"/>
-      <c r="T140" s="8"/>
-      <c r="U140" s="8"/>
-      <c r="V140" s="8"/>
-      <c r="W140" s="8"/>
-      <c r="X140" s="8"/>
-      <c r="Y140" s="8"/>
-      <c r="Z140" s="8"/>
-      <c r="AA140" s="8"/>
-      <c r="AB140" s="8"/>
-      <c r="AC140" s="8"/>
-      <c r="AD140" s="8"/>
-      <c r="AE140" s="8"/>
-      <c r="AF140" s="8"/>
-      <c r="AG140" s="8"/>
-      <c r="AH140" s="8"/>
-      <c r="AI140" s="8"/>
-      <c r="AJ140" s="8"/>
-      <c r="AK140" s="8"/>
-      <c r="AL140" s="8"/>
-      <c r="AM140" s="8"/>
-      <c r="AN140" s="8"/>
-      <c r="AO140" s="8"/>
-      <c r="AP140" s="8"/>
-      <c r="AQ140" s="8"/>
-      <c r="AR140" s="8"/>
-      <c r="AS140" s="8"/>
-      <c r="AT140" s="8"/>
-      <c r="AU140" s="8"/>
-      <c r="AV140" s="8"/>
-      <c r="AW140" s="8"/>
-      <c r="AX140" s="8"/>
-      <c r="AY140" s="8"/>
-      <c r="AZ140" s="8"/>
-      <c r="BA140" s="8"/>
-      <c r="BB140" s="8"/>
-      <c r="BC140" s="8"/>
-      <c r="BD140" s="8"/>
-      <c r="BE140" s="8"/>
-      <c r="BF140" s="8"/>
-      <c r="BG140" s="8"/>
-      <c r="BH140" s="8"/>
-      <c r="BI140" s="8"/>
-      <c r="BJ140" s="8"/>
-      <c r="BK140" s="8"/>
-      <c r="BL140" s="8"/>
-      <c r="BM140" s="8"/>
-      <c r="BN140" s="8"/>
-      <c r="BO140" s="8"/>
-      <c r="BP140" s="8"/>
-      <c r="BQ140" s="8"/>
-      <c r="BR140" s="8"/>
-      <c r="BS140" s="8"/>
-      <c r="BT140" s="8"/>
-      <c r="BU140" s="8"/>
-      <c r="BV140" s="8"/>
-      <c r="BW140" s="8"/>
-      <c r="BX140" s="8"/>
-      <c r="BY140" s="8"/>
-      <c r="BZ140" s="8"/>
-      <c r="CA140" s="8"/>
-      <c r="CB140" s="8"/>
-      <c r="CC140" s="8"/>
-      <c r="CD140" s="8"/>
-      <c r="CE140" s="8"/>
-      <c r="CF140" s="8"/>
-      <c r="CG140" s="8"/>
-      <c r="CH140" s="8"/>
-      <c r="CI140" s="8"/>
-      <c r="CJ140" s="8"/>
-      <c r="CK140" s="8"/>
-      <c r="CL140" s="8"/>
-      <c r="CM140" s="8"/>
-      <c r="CN140" s="8"/>
-      <c r="CO140" s="8"/>
-      <c r="CP140" s="8"/>
-      <c r="CQ140" s="8"/>
-      <c r="CR140" s="8"/>
-      <c r="CS140" s="8"/>
-      <c r="CT140" s="8"/>
-      <c r="CU140" s="8"/>
-      <c r="CV140" s="8"/>
-      <c r="CW140" s="8"/>
-      <c r="CX140" s="8"/>
-      <c r="CY140" s="8"/>
-      <c r="CZ140" s="8"/>
-      <c r="DA140" s="8"/>
-      <c r="DB140" s="8"/>
-      <c r="DC140" s="8"/>
-      <c r="DD140" s="8"/>
-      <c r="DE140" s="8"/>
-      <c r="DF140" s="8"/>
-      <c r="DG140" s="8"/>
-      <c r="DH140" s="8"/>
-      <c r="DI140" s="8"/>
-      <c r="DJ140" s="8"/>
-      <c r="DK140" s="8"/>
-      <c r="DL140" s="8"/>
-      <c r="DM140" s="8"/>
-      <c r="DN140" s="8"/>
-      <c r="DO140" s="8"/>
-      <c r="DP140" s="8"/>
-      <c r="DQ140" s="8"/>
-      <c r="DR140" s="8"/>
-      <c r="DS140" s="8"/>
-      <c r="DT140" s="8"/>
-      <c r="DU140" s="8"/>
-      <c r="DV140" s="8"/>
-      <c r="DW140" s="8"/>
-      <c r="DX140" s="8"/>
-      <c r="DY140" s="8"/>
-      <c r="DZ140" s="8"/>
-      <c r="EA140" s="8"/>
-      <c r="EB140" s="8"/>
-      <c r="EC140" s="8"/>
-      <c r="ED140" s="8"/>
-      <c r="EE140" s="8"/>
-      <c r="EF140" s="8"/>
-      <c r="EG140" s="8"/>
-      <c r="EH140" s="8"/>
-      <c r="EI140" s="8"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="8"/>
-      <c r="J141" s="8"/>
-      <c r="K141" s="8"/>
-      <c r="L141" s="8"/>
-      <c r="M141" s="8"/>
-      <c r="N141" s="8"/>
-      <c r="O141" s="8"/>
-      <c r="P141" s="8"/>
-      <c r="Q141" s="8"/>
-      <c r="R141" s="8"/>
-      <c r="S141" s="8"/>
-      <c r="T141" s="8"/>
-      <c r="U141" s="8"/>
-      <c r="V141" s="8"/>
-      <c r="W141" s="8"/>
-      <c r="X141" s="8"/>
-      <c r="Y141" s="8"/>
-      <c r="Z141" s="8"/>
-      <c r="AA141" s="8"/>
-      <c r="AB141" s="8"/>
-      <c r="AC141" s="8"/>
-      <c r="AD141" s="8"/>
-      <c r="AE141" s="8"/>
-      <c r="AF141" s="8"/>
-      <c r="AG141" s="8"/>
-      <c r="AH141" s="8"/>
-      <c r="AI141" s="8"/>
-      <c r="AJ141" s="8"/>
-      <c r="AK141" s="8"/>
-      <c r="AL141" s="8"/>
-      <c r="AM141" s="8"/>
-      <c r="AN141" s="8"/>
-      <c r="AO141" s="8"/>
-      <c r="AP141" s="8"/>
-      <c r="AQ141" s="8"/>
-      <c r="AR141" s="8"/>
-      <c r="AS141" s="8"/>
-      <c r="AT141" s="8"/>
-      <c r="AU141" s="8"/>
-      <c r="AV141" s="8"/>
-      <c r="AW141" s="8"/>
-      <c r="AX141" s="8"/>
-      <c r="AY141" s="8"/>
-      <c r="AZ141" s="8"/>
-      <c r="BA141" s="8"/>
-      <c r="BB141" s="8"/>
-      <c r="BC141" s="8"/>
-      <c r="BD141" s="8"/>
-      <c r="BE141" s="8"/>
-      <c r="BF141" s="8"/>
-      <c r="BG141" s="8"/>
-      <c r="BH141" s="8"/>
-      <c r="BI141" s="8"/>
-      <c r="BJ141" s="8"/>
-      <c r="BK141" s="8"/>
-      <c r="BL141" s="8"/>
-      <c r="BM141" s="8"/>
-      <c r="BN141" s="8"/>
-      <c r="BO141" s="8"/>
-      <c r="BP141" s="8"/>
-      <c r="BQ141" s="8"/>
-      <c r="BR141" s="8"/>
-      <c r="BS141" s="8"/>
-      <c r="BT141" s="8"/>
-      <c r="BU141" s="8"/>
-      <c r="BV141" s="8"/>
-      <c r="BW141" s="8"/>
-      <c r="BX141" s="8"/>
-      <c r="BY141" s="8"/>
-      <c r="BZ141" s="8"/>
-      <c r="CA141" s="8"/>
-      <c r="CB141" s="8"/>
-      <c r="CC141" s="8"/>
-      <c r="CD141" s="8"/>
-      <c r="CE141" s="8"/>
-      <c r="CF141" s="8"/>
-      <c r="CG141" s="8"/>
-      <c r="CH141" s="8"/>
-      <c r="CI141" s="8"/>
-      <c r="CJ141" s="8"/>
-      <c r="CK141" s="8"/>
-      <c r="CL141" s="8"/>
-      <c r="CM141" s="8"/>
-      <c r="CN141" s="8"/>
-      <c r="CO141" s="8"/>
-      <c r="CP141" s="8"/>
-      <c r="CQ141" s="8"/>
-      <c r="CR141" s="8"/>
-      <c r="CS141" s="8"/>
-      <c r="CT141" s="8"/>
-      <c r="CU141" s="8"/>
-      <c r="CV141" s="8"/>
-      <c r="CW141" s="8"/>
-      <c r="CX141" s="8"/>
-      <c r="CY141" s="8"/>
-      <c r="CZ141" s="8"/>
-      <c r="DA141" s="8"/>
-      <c r="DB141" s="8"/>
-      <c r="DC141" s="8"/>
-      <c r="DD141" s="8"/>
-      <c r="DE141" s="8"/>
-      <c r="DF141" s="8"/>
-      <c r="DG141" s="8"/>
-      <c r="DH141" s="8"/>
-      <c r="DI141" s="8"/>
-      <c r="DJ141" s="8"/>
-      <c r="DK141" s="8"/>
-      <c r="DL141" s="8"/>
-      <c r="DM141" s="8"/>
-      <c r="DN141" s="8"/>
-      <c r="DO141" s="8"/>
-      <c r="DP141" s="8"/>
-      <c r="DQ141" s="8"/>
-      <c r="DR141" s="8"/>
-      <c r="DS141" s="8"/>
-      <c r="DT141" s="8"/>
-      <c r="DU141" s="8"/>
-      <c r="DV141" s="8"/>
-      <c r="DW141" s="8"/>
-      <c r="DX141" s="8"/>
-      <c r="DY141" s="8"/>
-      <c r="DZ141" s="8"/>
-      <c r="EA141" s="8"/>
-      <c r="EB141" s="8"/>
-      <c r="EC141" s="8"/>
-      <c r="ED141" s="8"/>
-      <c r="EE141" s="8"/>
-      <c r="EF141" s="8"/>
-      <c r="EG141" s="8"/>
-      <c r="EH141" s="8"/>
-      <c r="EI141" s="8"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8"/>
-      <c r="J142" s="8"/>
-      <c r="K142" s="8"/>
-      <c r="L142" s="8"/>
-      <c r="M142" s="8"/>
-      <c r="N142" s="8"/>
-      <c r="O142" s="8"/>
-      <c r="P142" s="8"/>
-      <c r="Q142" s="8"/>
-      <c r="R142" s="8"/>
-      <c r="S142" s="8"/>
-      <c r="T142" s="8"/>
-      <c r="U142" s="8"/>
-      <c r="V142" s="8"/>
-      <c r="W142" s="8"/>
-      <c r="X142" s="8"/>
-      <c r="Y142" s="8"/>
-      <c r="Z142" s="8"/>
-      <c r="AA142" s="8"/>
-      <c r="AB142" s="8"/>
-      <c r="AC142" s="8"/>
-      <c r="AD142" s="8"/>
-      <c r="AE142" s="8"/>
-      <c r="AF142" s="8"/>
-      <c r="AG142" s="8"/>
-      <c r="AH142" s="8"/>
-      <c r="AI142" s="8"/>
-      <c r="AJ142" s="8"/>
-      <c r="AK142" s="8"/>
-      <c r="AL142" s="8"/>
-      <c r="AM142" s="8"/>
-      <c r="AN142" s="8"/>
-      <c r="AO142" s="8"/>
-      <c r="AP142" s="8"/>
-      <c r="AQ142" s="8"/>
-      <c r="AR142" s="8"/>
-      <c r="AS142" s="8"/>
-      <c r="AT142" s="8"/>
-      <c r="AU142" s="8"/>
-      <c r="AV142" s="8"/>
-      <c r="AW142" s="8"/>
-      <c r="AX142" s="8"/>
-      <c r="AY142" s="8"/>
-      <c r="AZ142" s="8"/>
-      <c r="BA142" s="8"/>
-      <c r="BB142" s="8"/>
-      <c r="BC142" s="8"/>
-      <c r="BD142" s="8"/>
-      <c r="BE142" s="8"/>
-      <c r="BF142" s="8"/>
-      <c r="BG142" s="8"/>
-      <c r="BH142" s="8"/>
-      <c r="BI142" s="8"/>
-      <c r="BJ142" s="8"/>
-      <c r="BK142" s="8"/>
-      <c r="BL142" s="8"/>
-      <c r="BM142" s="8"/>
-      <c r="BN142" s="8"/>
-      <c r="BO142" s="8"/>
-      <c r="BP142" s="8"/>
-      <c r="BQ142" s="8"/>
-      <c r="BR142" s="8"/>
-      <c r="BS142" s="8"/>
-      <c r="BT142" s="8"/>
-      <c r="BU142" s="8"/>
-      <c r="BV142" s="8"/>
-      <c r="BW142" s="8"/>
-      <c r="BX142" s="8"/>
-      <c r="BY142" s="8"/>
-      <c r="BZ142" s="8"/>
-      <c r="CA142" s="8"/>
-      <c r="CB142" s="8"/>
-      <c r="CC142" s="8"/>
-      <c r="CD142" s="8"/>
-      <c r="CE142" s="8"/>
-      <c r="CF142" s="8"/>
-      <c r="CG142" s="8"/>
-      <c r="CH142" s="8"/>
-      <c r="CI142" s="8"/>
-      <c r="CJ142" s="8"/>
-      <c r="CK142" s="8"/>
-      <c r="CL142" s="8"/>
-      <c r="CM142" s="8"/>
-      <c r="CN142" s="8"/>
-      <c r="CO142" s="8"/>
-      <c r="CP142" s="8"/>
-      <c r="CQ142" s="8"/>
-      <c r="CR142" s="8"/>
-      <c r="CS142" s="8"/>
-      <c r="CT142" s="8"/>
-      <c r="CU142" s="8"/>
-      <c r="CV142" s="8"/>
-      <c r="CW142" s="8"/>
-      <c r="CX142" s="8"/>
-      <c r="CY142" s="8"/>
-      <c r="CZ142" s="8"/>
-      <c r="DA142" s="8"/>
-      <c r="DB142" s="8"/>
-      <c r="DC142" s="8"/>
-      <c r="DD142" s="8"/>
-      <c r="DE142" s="8"/>
-      <c r="DF142" s="8"/>
-      <c r="DG142" s="8"/>
-      <c r="DH142" s="8"/>
-      <c r="DI142" s="8"/>
-      <c r="DJ142" s="8"/>
-      <c r="DK142" s="8"/>
-      <c r="DL142" s="8"/>
-      <c r="DM142" s="8"/>
-      <c r="DN142" s="8"/>
-      <c r="DO142" s="8"/>
-      <c r="DP142" s="8"/>
-      <c r="DQ142" s="8"/>
-      <c r="DR142" s="8"/>
-      <c r="DS142" s="8"/>
-      <c r="DT142" s="8"/>
-      <c r="DU142" s="8"/>
-      <c r="DV142" s="8"/>
-      <c r="DW142" s="8"/>
-      <c r="DX142" s="8"/>
-      <c r="DY142" s="8"/>
-      <c r="DZ142" s="8"/>
-      <c r="EA142" s="8"/>
-      <c r="EB142" s="8"/>
-      <c r="EC142" s="8"/>
-      <c r="ED142" s="8"/>
-      <c r="EE142" s="8"/>
-      <c r="EF142" s="8"/>
-      <c r="EG142" s="8"/>
-      <c r="EH142" s="8"/>
-      <c r="EI142" s="8"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B143" s="8"/>
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="K143" s="8"/>
-      <c r="L143" s="8"/>
-      <c r="M143" s="8"/>
-      <c r="N143" s="8"/>
-      <c r="O143" s="8"/>
-      <c r="P143" s="8"/>
-      <c r="Q143" s="8"/>
-      <c r="R143" s="8"/>
-      <c r="S143" s="8"/>
-      <c r="T143" s="8"/>
-      <c r="U143" s="8"/>
-      <c r="V143" s="8"/>
-      <c r="W143" s="8"/>
-      <c r="X143" s="8"/>
-      <c r="Y143" s="8"/>
-      <c r="Z143" s="8"/>
-      <c r="AA143" s="8"/>
-      <c r="AB143" s="8"/>
-      <c r="AC143" s="8"/>
-      <c r="AD143" s="8"/>
-      <c r="AE143" s="8"/>
-      <c r="AF143" s="8"/>
-      <c r="AG143" s="8"/>
-      <c r="AH143" s="8"/>
-      <c r="AI143" s="8"/>
-      <c r="AJ143" s="8"/>
-      <c r="AK143" s="8"/>
-      <c r="AL143" s="8"/>
-      <c r="AM143" s="8"/>
-      <c r="AN143" s="8"/>
-      <c r="AO143" s="8"/>
-      <c r="AP143" s="8"/>
-      <c r="AQ143" s="8"/>
-      <c r="AR143" s="8"/>
-      <c r="AS143" s="8"/>
-      <c r="AT143" s="8"/>
-      <c r="AU143" s="8"/>
-      <c r="AV143" s="8"/>
-      <c r="AW143" s="8"/>
-      <c r="AX143" s="8"/>
-      <c r="AY143" s="8"/>
-      <c r="AZ143" s="8"/>
-      <c r="BA143" s="8"/>
-      <c r="BB143" s="8"/>
-      <c r="BC143" s="8"/>
-      <c r="BD143" s="8"/>
-      <c r="BE143" s="8"/>
-      <c r="BF143" s="8"/>
-      <c r="BG143" s="8"/>
-      <c r="BH143" s="8"/>
-      <c r="BI143" s="8"/>
-      <c r="BJ143" s="8"/>
-      <c r="BK143" s="8"/>
-      <c r="BL143" s="8"/>
-      <c r="BM143" s="8"/>
-      <c r="BN143" s="8"/>
-      <c r="BO143" s="8"/>
-      <c r="BP143" s="8"/>
-      <c r="BQ143" s="8"/>
-      <c r="BR143" s="8"/>
-      <c r="BS143" s="8"/>
-      <c r="BT143" s="8"/>
-      <c r="BU143" s="8"/>
-      <c r="BV143" s="8"/>
-      <c r="BW143" s="8"/>
-      <c r="BX143" s="8"/>
-      <c r="BY143" s="8"/>
-      <c r="BZ143" s="8"/>
-      <c r="CA143" s="8"/>
-      <c r="CB143" s="8"/>
-      <c r="CC143" s="8"/>
-      <c r="CD143" s="8"/>
-      <c r="CE143" s="8"/>
-      <c r="CF143" s="8"/>
-      <c r="CG143" s="8"/>
-      <c r="CH143" s="8"/>
-      <c r="CI143" s="8"/>
-      <c r="CJ143" s="8"/>
-      <c r="CK143" s="8"/>
-      <c r="CL143" s="8"/>
-      <c r="CM143" s="8"/>
-      <c r="CN143" s="8"/>
-      <c r="CO143" s="8"/>
-      <c r="CP143" s="8"/>
-      <c r="CQ143" s="8"/>
-      <c r="CR143" s="8"/>
-      <c r="CS143" s="8"/>
-      <c r="CT143" s="8"/>
-      <c r="CU143" s="8"/>
-      <c r="CV143" s="8"/>
-      <c r="CW143" s="8"/>
-      <c r="CX143" s="8"/>
-      <c r="CY143" s="8"/>
-      <c r="CZ143" s="8"/>
-      <c r="DA143" s="8"/>
-      <c r="DB143" s="8"/>
-      <c r="DC143" s="8"/>
-      <c r="DD143" s="8"/>
-      <c r="DE143" s="8"/>
-      <c r="DF143" s="8"/>
-      <c r="DG143" s="8"/>
-      <c r="DH143" s="8"/>
-      <c r="DI143" s="8"/>
-      <c r="DJ143" s="8"/>
-      <c r="DK143" s="8"/>
-      <c r="DL143" s="8"/>
-      <c r="DM143" s="8"/>
-      <c r="DN143" s="8"/>
-      <c r="DO143" s="8"/>
-      <c r="DP143" s="8"/>
-      <c r="DQ143" s="8"/>
-      <c r="DR143" s="8"/>
-      <c r="DS143" s="8"/>
-      <c r="DT143" s="8"/>
-      <c r="DU143" s="8"/>
-      <c r="DV143" s="8"/>
-      <c r="DW143" s="8"/>
-      <c r="DX143" s="8"/>
-      <c r="DY143" s="8"/>
-      <c r="DZ143" s="8"/>
-      <c r="EA143" s="8"/>
-      <c r="EB143" s="8"/>
-      <c r="EC143" s="8"/>
-      <c r="ED143" s="8"/>
-      <c r="EE143" s="8"/>
-      <c r="EF143" s="8"/>
-      <c r="EG143" s="8"/>
-      <c r="EH143" s="8"/>
-      <c r="EI143" s="8"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B144" s="8"/>
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="8"/>
-      <c r="H144" s="8"/>
-      <c r="I144" s="8"/>
-      <c r="J144" s="8"/>
-      <c r="K144" s="8"/>
-      <c r="L144" s="8"/>
-      <c r="M144" s="8"/>
-      <c r="N144" s="8"/>
-      <c r="O144" s="8"/>
-      <c r="P144" s="8"/>
-      <c r="Q144" s="8"/>
-      <c r="R144" s="8"/>
-      <c r="S144" s="8"/>
-      <c r="T144" s="8"/>
-      <c r="U144" s="8"/>
-      <c r="V144" s="8"/>
-      <c r="W144" s="8"/>
-      <c r="X144" s="8"/>
-      <c r="Y144" s="8"/>
-      <c r="Z144" s="8"/>
-      <c r="AA144" s="8"/>
-      <c r="AB144" s="8"/>
-      <c r="AC144" s="8"/>
-      <c r="AD144" s="8"/>
-      <c r="AE144" s="8"/>
-      <c r="AF144" s="8"/>
-      <c r="AG144" s="8"/>
-      <c r="AH144" s="8"/>
-      <c r="AI144" s="8"/>
-      <c r="AJ144" s="8"/>
-      <c r="AK144" s="8"/>
-      <c r="AL144" s="8"/>
-      <c r="AM144" s="8"/>
-      <c r="AN144" s="8"/>
-      <c r="AO144" s="8"/>
-      <c r="AP144" s="8"/>
-      <c r="AQ144" s="8"/>
-      <c r="AR144" s="8"/>
-      <c r="AS144" s="8"/>
-      <c r="AT144" s="8"/>
-      <c r="AU144" s="8"/>
-      <c r="AV144" s="8"/>
-      <c r="AW144" s="8"/>
-      <c r="AX144" s="8"/>
-      <c r="AY144" s="8"/>
-      <c r="AZ144" s="8"/>
-      <c r="BA144" s="8"/>
-      <c r="BB144" s="8"/>
-      <c r="BC144" s="8"/>
-      <c r="BD144" s="8"/>
-      <c r="BE144" s="8"/>
-      <c r="BF144" s="8"/>
-      <c r="BG144" s="8"/>
-      <c r="BH144" s="8"/>
-      <c r="BI144" s="8"/>
-      <c r="BJ144" s="8"/>
-      <c r="BK144" s="8"/>
-      <c r="BL144" s="8"/>
-      <c r="BM144" s="8"/>
-      <c r="BN144" s="8"/>
-      <c r="BO144" s="8"/>
-      <c r="BP144" s="8"/>
-      <c r="BQ144" s="8"/>
-      <c r="BR144" s="8"/>
-      <c r="BS144" s="8"/>
-      <c r="BT144" s="8"/>
-      <c r="BU144" s="8"/>
-      <c r="BV144" s="8"/>
-      <c r="BW144" s="8"/>
-      <c r="BX144" s="8"/>
-      <c r="BY144" s="8"/>
-      <c r="BZ144" s="8"/>
-      <c r="CA144" s="8"/>
-      <c r="CB144" s="8"/>
-      <c r="CC144" s="8"/>
-      <c r="CD144" s="8"/>
-      <c r="CE144" s="8"/>
-      <c r="CF144" s="8"/>
-      <c r="CG144" s="8"/>
-      <c r="CH144" s="8"/>
-      <c r="CI144" s="8"/>
-      <c r="CJ144" s="8"/>
-      <c r="CK144" s="8"/>
-      <c r="CL144" s="8"/>
-      <c r="CM144" s="8"/>
-      <c r="CN144" s="8"/>
-      <c r="CO144" s="8"/>
-      <c r="CP144" s="8"/>
-      <c r="CQ144" s="8"/>
-      <c r="CR144" s="8"/>
-      <c r="CS144" s="8"/>
-      <c r="CT144" s="8"/>
-      <c r="CU144" s="8"/>
-      <c r="CV144" s="8"/>
-      <c r="CW144" s="8"/>
-      <c r="CX144" s="8"/>
-      <c r="CY144" s="8"/>
-      <c r="CZ144" s="8"/>
-      <c r="DA144" s="8"/>
-      <c r="DB144" s="8"/>
-      <c r="DC144" s="8"/>
-      <c r="DD144" s="8"/>
-      <c r="DE144" s="8"/>
-      <c r="DF144" s="8"/>
-      <c r="DG144" s="8"/>
-      <c r="DH144" s="8"/>
-      <c r="DI144" s="8"/>
-      <c r="DJ144" s="8"/>
-      <c r="DK144" s="8"/>
-      <c r="DL144" s="8"/>
-      <c r="DM144" s="8"/>
-      <c r="DN144" s="8"/>
-      <c r="DO144" s="8"/>
-      <c r="DP144" s="8"/>
-      <c r="DQ144" s="8"/>
-      <c r="DR144" s="8"/>
-      <c r="DS144" s="8"/>
-      <c r="DT144" s="8"/>
-      <c r="DU144" s="8"/>
-      <c r="DV144" s="8"/>
-      <c r="DW144" s="8"/>
-      <c r="DX144" s="8"/>
-      <c r="DY144" s="8"/>
-      <c r="DZ144" s="8"/>
-      <c r="EA144" s="8"/>
-      <c r="EB144" s="8"/>
-      <c r="EC144" s="8"/>
-      <c r="ED144" s="8"/>
-      <c r="EE144" s="8"/>
-      <c r="EF144" s="8"/>
-      <c r="EG144" s="8"/>
-      <c r="EH144" s="8"/>
-      <c r="EI144" s="8"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B145" s="8"/>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
-      <c r="H145" s="8"/>
-      <c r="I145" s="8"/>
-      <c r="J145" s="8"/>
-      <c r="K145" s="8"/>
-      <c r="L145" s="8"/>
-      <c r="M145" s="8"/>
-      <c r="N145" s="8"/>
-      <c r="O145" s="8"/>
-      <c r="P145" s="8"/>
-      <c r="Q145" s="8"/>
-      <c r="R145" s="8"/>
-      <c r="S145" s="8"/>
-      <c r="T145" s="8"/>
-      <c r="U145" s="8"/>
-      <c r="V145" s="8"/>
-      <c r="W145" s="8"/>
-      <c r="X145" s="8"/>
-      <c r="Y145" s="8"/>
-      <c r="Z145" s="8"/>
-      <c r="AA145" s="8"/>
-      <c r="AB145" s="8"/>
-      <c r="AC145" s="8"/>
-      <c r="AD145" s="8"/>
-      <c r="AE145" s="8"/>
-      <c r="AF145" s="8"/>
-      <c r="AG145" s="8"/>
-      <c r="AH145" s="8"/>
-      <c r="AI145" s="8"/>
-      <c r="AJ145" s="8"/>
-      <c r="AK145" s="8"/>
-      <c r="AL145" s="8"/>
-      <c r="AM145" s="8"/>
-      <c r="AN145" s="8"/>
-      <c r="AO145" s="8"/>
-      <c r="AP145" s="8"/>
-      <c r="AQ145" s="8"/>
-      <c r="AR145" s="8"/>
-      <c r="AS145" s="8"/>
-      <c r="AT145" s="8"/>
-      <c r="AU145" s="8"/>
-      <c r="AV145" s="8"/>
-      <c r="AW145" s="8"/>
-      <c r="AX145" s="8"/>
-      <c r="AY145" s="8"/>
-      <c r="AZ145" s="8"/>
-      <c r="BA145" s="8"/>
-      <c r="BB145" s="8"/>
-      <c r="BC145" s="8"/>
-      <c r="BD145" s="8"/>
-      <c r="BE145" s="8"/>
-      <c r="BF145" s="8"/>
-      <c r="BG145" s="8"/>
-      <c r="BH145" s="8"/>
-      <c r="BI145" s="8"/>
-      <c r="BJ145" s="8"/>
-      <c r="BK145" s="8"/>
-      <c r="BL145" s="8"/>
-      <c r="BM145" s="8"/>
-      <c r="BN145" s="8"/>
-      <c r="BO145" s="8"/>
-      <c r="BP145" s="8"/>
-      <c r="BQ145" s="8"/>
-      <c r="BR145" s="8"/>
-      <c r="BS145" s="8"/>
-      <c r="BT145" s="8"/>
-      <c r="BU145" s="8"/>
-      <c r="BV145" s="8"/>
-      <c r="BW145" s="8"/>
-      <c r="BX145" s="8"/>
-      <c r="BY145" s="8"/>
-      <c r="BZ145" s="8"/>
-      <c r="CA145" s="8"/>
-      <c r="CB145" s="8"/>
-      <c r="CC145" s="8"/>
-      <c r="CD145" s="8"/>
-      <c r="CE145" s="8"/>
-      <c r="CF145" s="8"/>
-      <c r="CG145" s="8"/>
-      <c r="CH145" s="8"/>
-      <c r="CI145" s="8"/>
-      <c r="CJ145" s="8"/>
-      <c r="CK145" s="8"/>
-      <c r="CL145" s="8"/>
-      <c r="CM145" s="8"/>
-      <c r="CN145" s="8"/>
-      <c r="CO145" s="8"/>
-      <c r="CP145" s="8"/>
-      <c r="CQ145" s="8"/>
-      <c r="CR145" s="8"/>
-      <c r="CS145" s="8"/>
-      <c r="CT145" s="8"/>
-      <c r="CU145" s="8"/>
-      <c r="CV145" s="8"/>
-      <c r="CW145" s="8"/>
-      <c r="CX145" s="8"/>
-      <c r="CY145" s="8"/>
-      <c r="CZ145" s="8"/>
-      <c r="DA145" s="8"/>
-      <c r="DB145" s="8"/>
-      <c r="DC145" s="8"/>
-      <c r="DD145" s="8"/>
-      <c r="DE145" s="8"/>
-      <c r="DF145" s="8"/>
-      <c r="DG145" s="8"/>
-      <c r="DH145" s="8"/>
-      <c r="DI145" s="8"/>
-      <c r="DJ145" s="8"/>
-      <c r="DK145" s="8"/>
-      <c r="DL145" s="8"/>
-      <c r="DM145" s="8"/>
-      <c r="DN145" s="8"/>
-      <c r="DO145" s="8"/>
-      <c r="DP145" s="8"/>
-      <c r="DQ145" s="8"/>
-      <c r="DR145" s="8"/>
-      <c r="DS145" s="8"/>
-      <c r="DT145" s="8"/>
-      <c r="DU145" s="8"/>
-      <c r="DV145" s="8"/>
-      <c r="DW145" s="8"/>
-      <c r="DX145" s="8"/>
-      <c r="DY145" s="8"/>
-      <c r="DZ145" s="8"/>
-      <c r="EA145" s="8"/>
-      <c r="EB145" s="8"/>
-      <c r="EC145" s="8"/>
-      <c r="ED145" s="8"/>
-      <c r="EE145" s="8"/>
-      <c r="EF145" s="8"/>
-      <c r="EG145" s="8"/>
-      <c r="EH145" s="8"/>
-      <c r="EI145" s="8"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B146" s="8"/>
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
-      <c r="I146" s="8"/>
-      <c r="J146" s="8"/>
-      <c r="K146" s="8"/>
-      <c r="L146" s="8"/>
-      <c r="M146" s="8"/>
-      <c r="N146" s="8"/>
-      <c r="O146" s="8"/>
-      <c r="P146" s="8"/>
-      <c r="Q146" s="8"/>
-      <c r="R146" s="8"/>
-      <c r="S146" s="8"/>
-      <c r="T146" s="8"/>
-      <c r="U146" s="8"/>
-      <c r="V146" s="8"/>
-      <c r="W146" s="8"/>
-      <c r="X146" s="8"/>
-      <c r="Y146" s="8"/>
-      <c r="Z146" s="8"/>
-      <c r="AA146" s="8"/>
-      <c r="AB146" s="8"/>
-      <c r="AC146" s="8"/>
-      <c r="AD146" s="8"/>
-      <c r="AE146" s="8"/>
-      <c r="AF146" s="8"/>
-      <c r="AG146" s="8"/>
-      <c r="AH146" s="8"/>
-      <c r="AI146" s="8"/>
-      <c r="AJ146" s="8"/>
-      <c r="AK146" s="8"/>
-      <c r="AL146" s="8"/>
-      <c r="AM146" s="8"/>
-      <c r="AN146" s="8"/>
-      <c r="AO146" s="8"/>
-      <c r="AP146" s="8"/>
-      <c r="AQ146" s="8"/>
-      <c r="AR146" s="8"/>
-      <c r="AS146" s="8"/>
-      <c r="AT146" s="8"/>
-      <c r="AU146" s="8"/>
-      <c r="AV146" s="8"/>
-      <c r="AW146" s="8"/>
-      <c r="AX146" s="8"/>
-      <c r="AY146" s="8"/>
-      <c r="AZ146" s="8"/>
-      <c r="BA146" s="8"/>
-      <c r="BB146" s="8"/>
-      <c r="BC146" s="8"/>
-      <c r="BD146" s="8"/>
-      <c r="BE146" s="8"/>
-      <c r="BF146" s="8"/>
-      <c r="BG146" s="8"/>
-      <c r="BH146" s="8"/>
-      <c r="BI146" s="8"/>
-      <c r="BJ146" s="8"/>
-      <c r="BK146" s="8"/>
-      <c r="BL146" s="8"/>
-      <c r="BM146" s="8"/>
-      <c r="BN146" s="8"/>
-      <c r="BO146" s="8"/>
-      <c r="BP146" s="8"/>
-      <c r="BQ146" s="8"/>
-      <c r="BR146" s="8"/>
-      <c r="BS146" s="8"/>
-      <c r="BT146" s="8"/>
-      <c r="BU146" s="8"/>
-      <c r="BV146" s="8"/>
-      <c r="BW146" s="8"/>
-      <c r="BX146" s="8"/>
-      <c r="BY146" s="8"/>
-      <c r="BZ146" s="8"/>
-      <c r="CA146" s="8"/>
-      <c r="CB146" s="8"/>
-      <c r="CC146" s="8"/>
-      <c r="CD146" s="8"/>
-      <c r="CE146" s="8"/>
-      <c r="CF146" s="8"/>
-      <c r="CG146" s="8"/>
-      <c r="CH146" s="8"/>
-      <c r="CI146" s="8"/>
-      <c r="CJ146" s="8"/>
-      <c r="CK146" s="8"/>
-      <c r="CL146" s="8"/>
-      <c r="CM146" s="8"/>
-      <c r="CN146" s="8"/>
-      <c r="CO146" s="8"/>
-      <c r="CP146" s="8"/>
-      <c r="CQ146" s="8"/>
-      <c r="CR146" s="8"/>
-      <c r="CS146" s="8"/>
-      <c r="CT146" s="8"/>
-      <c r="CU146" s="8"/>
-      <c r="CV146" s="8"/>
-      <c r="CW146" s="8"/>
-      <c r="CX146" s="8"/>
-      <c r="CY146" s="8"/>
-      <c r="CZ146" s="8"/>
-      <c r="DA146" s="8"/>
-      <c r="DB146" s="8"/>
-      <c r="DC146" s="8"/>
-      <c r="DD146" s="8"/>
-      <c r="DE146" s="8"/>
-      <c r="DF146" s="8"/>
-      <c r="DG146" s="8"/>
-      <c r="DH146" s="8"/>
-      <c r="DI146" s="8"/>
-      <c r="DJ146" s="8"/>
-      <c r="DK146" s="8"/>
-      <c r="DL146" s="8"/>
-      <c r="DM146" s="8"/>
-      <c r="DN146" s="8"/>
-      <c r="DO146" s="8"/>
-      <c r="DP146" s="8"/>
-      <c r="DQ146" s="8"/>
-      <c r="DR146" s="8"/>
-      <c r="DS146" s="8"/>
-      <c r="DT146" s="8"/>
-      <c r="DU146" s="8"/>
-      <c r="DV146" s="8"/>
-      <c r="DW146" s="8"/>
-      <c r="DX146" s="8"/>
-      <c r="DY146" s="8"/>
-      <c r="DZ146" s="8"/>
-      <c r="EA146" s="8"/>
-      <c r="EB146" s="8"/>
-      <c r="EC146" s="8"/>
-      <c r="ED146" s="8"/>
-      <c r="EE146" s="8"/>
-      <c r="EF146" s="8"/>
-      <c r="EG146" s="8"/>
-      <c r="EH146" s="8"/>
-      <c r="EI146" s="8"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="8"/>
-      <c r="H147" s="8"/>
-      <c r="I147" s="8"/>
-      <c r="J147" s="8"/>
-      <c r="K147" s="8"/>
-      <c r="L147" s="8"/>
-      <c r="M147" s="8"/>
-      <c r="N147" s="8"/>
-      <c r="O147" s="8"/>
-      <c r="P147" s="8"/>
-      <c r="Q147" s="8"/>
-      <c r="R147" s="8"/>
-      <c r="S147" s="8"/>
-      <c r="T147" s="8"/>
-      <c r="U147" s="8"/>
-      <c r="V147" s="8"/>
-      <c r="W147" s="8"/>
-      <c r="X147" s="8"/>
-      <c r="Y147" s="8"/>
-      <c r="Z147" s="8"/>
-      <c r="AA147" s="8"/>
-      <c r="AB147" s="8"/>
-      <c r="AC147" s="8"/>
-      <c r="AD147" s="8"/>
-      <c r="AE147" s="8"/>
-      <c r="AF147" s="8"/>
-      <c r="AG147" s="8"/>
-      <c r="AH147" s="8"/>
-      <c r="AI147" s="8"/>
-      <c r="AJ147" s="8"/>
-      <c r="AK147" s="8"/>
-      <c r="AL147" s="8"/>
-      <c r="AM147" s="8"/>
-      <c r="AN147" s="8"/>
-      <c r="AO147" s="8"/>
-      <c r="AP147" s="8"/>
-      <c r="AQ147" s="8"/>
-      <c r="AR147" s="8"/>
-      <c r="AS147" s="8"/>
-      <c r="AT147" s="8"/>
-      <c r="AU147" s="8"/>
-      <c r="AV147" s="8"/>
-      <c r="AW147" s="8"/>
-      <c r="AX147" s="8"/>
-      <c r="AY147" s="8"/>
-      <c r="AZ147" s="8"/>
-      <c r="BA147" s="8"/>
-      <c r="BB147" s="8"/>
-      <c r="BC147" s="8"/>
-      <c r="BD147" s="8"/>
-      <c r="BE147" s="8"/>
-      <c r="BF147" s="8"/>
-      <c r="BG147" s="8"/>
-      <c r="BH147" s="8"/>
-      <c r="BI147" s="8"/>
-      <c r="BJ147" s="8"/>
-      <c r="BK147" s="8"/>
-      <c r="BL147" s="8"/>
-      <c r="BM147" s="8"/>
-      <c r="BN147" s="8"/>
-      <c r="BO147" s="8"/>
-      <c r="BP147" s="8"/>
-      <c r="BQ147" s="8"/>
-      <c r="BR147" s="8"/>
-      <c r="BS147" s="8"/>
-      <c r="BT147" s="8"/>
-      <c r="BU147" s="8"/>
-      <c r="BV147" s="8"/>
-      <c r="BW147" s="8"/>
-      <c r="BX147" s="8"/>
-      <c r="BY147" s="8"/>
-      <c r="BZ147" s="8"/>
-      <c r="CA147" s="8"/>
-      <c r="CB147" s="8"/>
-      <c r="CC147" s="8"/>
-      <c r="CD147" s="8"/>
-      <c r="CE147" s="8"/>
-      <c r="CF147" s="8"/>
-      <c r="CG147" s="8"/>
-      <c r="CH147" s="8"/>
-      <c r="CI147" s="8"/>
-      <c r="CJ147" s="8"/>
-      <c r="CK147" s="8"/>
-      <c r="CL147" s="8"/>
-      <c r="CM147" s="8"/>
-      <c r="CN147" s="8"/>
-      <c r="CO147" s="8"/>
-      <c r="CP147" s="8"/>
-      <c r="CQ147" s="8"/>
-      <c r="CR147" s="8"/>
-      <c r="CS147" s="8"/>
-      <c r="CT147" s="8"/>
-      <c r="CU147" s="8"/>
-      <c r="CV147" s="8"/>
-      <c r="CW147" s="8"/>
-      <c r="CX147" s="8"/>
-      <c r="CY147" s="8"/>
-      <c r="CZ147" s="8"/>
-      <c r="DA147" s="8"/>
-      <c r="DB147" s="8"/>
-      <c r="DC147" s="8"/>
-      <c r="DD147" s="8"/>
-      <c r="DE147" s="8"/>
-      <c r="DF147" s="8"/>
-      <c r="DG147" s="8"/>
-      <c r="DH147" s="8"/>
-      <c r="DI147" s="8"/>
-      <c r="DJ147" s="8"/>
-      <c r="DK147" s="8"/>
-      <c r="DL147" s="8"/>
-      <c r="DM147" s="8"/>
-      <c r="DN147" s="8"/>
-      <c r="DO147" s="8"/>
-      <c r="DP147" s="8"/>
-      <c r="DQ147" s="8"/>
-      <c r="DR147" s="8"/>
-      <c r="DS147" s="8"/>
-      <c r="DT147" s="8"/>
-      <c r="DU147" s="8"/>
-      <c r="DV147" s="8"/>
-      <c r="DW147" s="8"/>
-      <c r="DX147" s="8"/>
-      <c r="DY147" s="8"/>
-      <c r="DZ147" s="8"/>
-      <c r="EA147" s="8"/>
-      <c r="EB147" s="8"/>
-      <c r="EC147" s="8"/>
-      <c r="ED147" s="8"/>
-      <c r="EE147" s="8"/>
-      <c r="EF147" s="8"/>
-      <c r="EG147" s="8"/>
-      <c r="EH147" s="8"/>
-      <c r="EI147" s="8"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B148" s="8"/>
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
-      <c r="H148" s="8"/>
-      <c r="I148" s="8"/>
-      <c r="J148" s="8"/>
-      <c r="K148" s="8"/>
-      <c r="L148" s="8"/>
-      <c r="M148" s="8"/>
-      <c r="N148" s="8"/>
-      <c r="O148" s="8"/>
-      <c r="P148" s="8"/>
-      <c r="Q148" s="8"/>
-      <c r="R148" s="8"/>
-      <c r="S148" s="8"/>
-      <c r="T148" s="8"/>
-      <c r="U148" s="8"/>
-      <c r="V148" s="8"/>
-      <c r="W148" s="8"/>
-      <c r="X148" s="8"/>
-      <c r="Y148" s="8"/>
-      <c r="Z148" s="8"/>
-      <c r="AA148" s="8"/>
-      <c r="AB148" s="8"/>
-      <c r="AC148" s="8"/>
-      <c r="AD148" s="8"/>
-      <c r="AE148" s="8"/>
-      <c r="AF148" s="8"/>
-      <c r="AG148" s="8"/>
-      <c r="AH148" s="8"/>
-      <c r="AI148" s="8"/>
-      <c r="AJ148" s="8"/>
-      <c r="AK148" s="8"/>
-      <c r="AL148" s="8"/>
-      <c r="AM148" s="8"/>
-      <c r="AN148" s="8"/>
-      <c r="AO148" s="8"/>
-      <c r="AP148" s="8"/>
-      <c r="AQ148" s="8"/>
-      <c r="AR148" s="8"/>
-      <c r="AS148" s="8"/>
-      <c r="AT148" s="8"/>
-      <c r="AU148" s="8"/>
-      <c r="AV148" s="8"/>
-      <c r="AW148" s="8"/>
-      <c r="AX148" s="8"/>
-      <c r="AY148" s="8"/>
-      <c r="AZ148" s="8"/>
-      <c r="BA148" s="8"/>
-      <c r="BB148" s="8"/>
-      <c r="BC148" s="8"/>
-      <c r="BD148" s="8"/>
-      <c r="BE148" s="8"/>
-      <c r="BF148" s="8"/>
-      <c r="BG148" s="8"/>
-      <c r="BH148" s="8"/>
-      <c r="BI148" s="8"/>
-      <c r="BJ148" s="8"/>
-      <c r="BK148" s="8"/>
-      <c r="BL148" s="8"/>
-      <c r="BM148" s="8"/>
-      <c r="BN148" s="8"/>
-      <c r="BO148" s="8"/>
-      <c r="BP148" s="8"/>
-      <c r="BQ148" s="8"/>
-      <c r="BR148" s="8"/>
-      <c r="BS148" s="8"/>
-      <c r="BT148" s="8"/>
-      <c r="BU148" s="8"/>
-      <c r="BV148" s="8"/>
-      <c r="BW148" s="8"/>
-      <c r="BX148" s="8"/>
-      <c r="BY148" s="8"/>
-      <c r="BZ148" s="8"/>
-      <c r="CA148" s="8"/>
-      <c r="CB148" s="8"/>
-      <c r="CC148" s="8"/>
-      <c r="CD148" s="8"/>
-      <c r="CE148" s="8"/>
-      <c r="CF148" s="8"/>
-      <c r="CG148" s="8"/>
-      <c r="CH148" s="8"/>
-      <c r="CI148" s="8"/>
-      <c r="CJ148" s="8"/>
-      <c r="CK148" s="8"/>
-      <c r="CL148" s="8"/>
-      <c r="CM148" s="8"/>
-      <c r="CN148" s="8"/>
-      <c r="CO148" s="8"/>
-      <c r="CP148" s="8"/>
-      <c r="CQ148" s="8"/>
-      <c r="CR148" s="8"/>
-      <c r="CS148" s="8"/>
-      <c r="CT148" s="8"/>
-      <c r="CU148" s="8"/>
-      <c r="CV148" s="8"/>
-      <c r="CW148" s="8"/>
-      <c r="CX148" s="8"/>
-      <c r="CY148" s="8"/>
-      <c r="CZ148" s="8"/>
-      <c r="DA148" s="8"/>
-      <c r="DB148" s="8"/>
-      <c r="DC148" s="8"/>
-      <c r="DD148" s="8"/>
-      <c r="DE148" s="8"/>
-      <c r="DF148" s="8"/>
-      <c r="DG148" s="8"/>
-      <c r="DH148" s="8"/>
-      <c r="DI148" s="8"/>
-      <c r="DJ148" s="8"/>
-      <c r="DK148" s="8"/>
-      <c r="DL148" s="8"/>
-      <c r="DM148" s="8"/>
-      <c r="DN148" s="8"/>
-      <c r="DO148" s="8"/>
-      <c r="DP148" s="8"/>
-      <c r="DQ148" s="8"/>
-      <c r="DR148" s="8"/>
-      <c r="DS148" s="8"/>
-      <c r="DT148" s="8"/>
-      <c r="DU148" s="8"/>
-      <c r="DV148" s="8"/>
-      <c r="DW148" s="8"/>
-      <c r="DX148" s="8"/>
-      <c r="DY148" s="8"/>
-      <c r="DZ148" s="8"/>
-      <c r="EA148" s="8"/>
-      <c r="EB148" s="8"/>
-      <c r="EC148" s="8"/>
-      <c r="ED148" s="8"/>
-      <c r="EE148" s="8"/>
-      <c r="EF148" s="8"/>
-      <c r="EG148" s="8"/>
-      <c r="EH148" s="8"/>
-      <c r="EI148" s="8"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B149" s="8"/>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
-      <c r="H149" s="8"/>
-      <c r="I149" s="8"/>
-      <c r="J149" s="8"/>
-      <c r="K149" s="8"/>
-      <c r="L149" s="8"/>
-      <c r="M149" s="8"/>
-      <c r="N149" s="8"/>
-      <c r="O149" s="8"/>
-      <c r="P149" s="8"/>
-      <c r="Q149" s="8"/>
-      <c r="R149" s="8"/>
-      <c r="S149" s="8"/>
-      <c r="T149" s="8"/>
-      <c r="U149" s="8"/>
-      <c r="V149" s="8"/>
-      <c r="W149" s="8"/>
-      <c r="X149" s="8"/>
-      <c r="Y149" s="8"/>
-      <c r="Z149" s="8"/>
-      <c r="AA149" s="8"/>
-      <c r="AB149" s="8"/>
-      <c r="AC149" s="8"/>
-      <c r="AD149" s="8"/>
-      <c r="AE149" s="8"/>
-      <c r="AF149" s="8"/>
-      <c r="AG149" s="8"/>
-      <c r="AH149" s="8"/>
-      <c r="AI149" s="8"/>
-      <c r="AJ149" s="8"/>
-      <c r="AK149" s="8"/>
-      <c r="AL149" s="8"/>
-      <c r="AM149" s="8"/>
-      <c r="AN149" s="8"/>
-      <c r="AO149" s="8"/>
-      <c r="AP149" s="8"/>
-      <c r="AQ149" s="8"/>
-      <c r="AR149" s="8"/>
-      <c r="AS149" s="8"/>
-      <c r="AT149" s="8"/>
-      <c r="AU149" s="8"/>
-      <c r="AV149" s="8"/>
-      <c r="AW149" s="8"/>
-      <c r="AX149" s="8"/>
-      <c r="AY149" s="8"/>
-      <c r="AZ149" s="8"/>
-      <c r="BA149" s="8"/>
-      <c r="BB149" s="8"/>
-      <c r="BC149" s="8"/>
-      <c r="BD149" s="8"/>
-      <c r="BE149" s="8"/>
-      <c r="BF149" s="8"/>
-      <c r="BG149" s="8"/>
-      <c r="BH149" s="8"/>
-      <c r="BI149" s="8"/>
-      <c r="BJ149" s="8"/>
-      <c r="BK149" s="8"/>
-      <c r="BL149" s="8"/>
-      <c r="BM149" s="8"/>
-      <c r="BN149" s="8"/>
-      <c r="BO149" s="8"/>
-      <c r="BP149" s="8"/>
-      <c r="BQ149" s="8"/>
-      <c r="BR149" s="8"/>
-      <c r="BS149" s="8"/>
-      <c r="BT149" s="8"/>
-      <c r="BU149" s="8"/>
-      <c r="BV149" s="8"/>
-      <c r="BW149" s="8"/>
-      <c r="BX149" s="8"/>
-      <c r="BY149" s="8"/>
-      <c r="BZ149" s="8"/>
-      <c r="CA149" s="8"/>
-      <c r="CB149" s="8"/>
-      <c r="CC149" s="8"/>
-      <c r="CD149" s="8"/>
-      <c r="CE149" s="8"/>
-      <c r="CF149" s="8"/>
-      <c r="CG149" s="8"/>
-      <c r="CH149" s="8"/>
-      <c r="CI149" s="8"/>
-      <c r="CJ149" s="8"/>
-      <c r="CK149" s="8"/>
-      <c r="CL149" s="8"/>
-      <c r="CM149" s="8"/>
-      <c r="CN149" s="8"/>
-      <c r="CO149" s="8"/>
-      <c r="CP149" s="8"/>
-      <c r="CQ149" s="8"/>
-      <c r="CR149" s="8"/>
-      <c r="CS149" s="8"/>
-      <c r="CT149" s="8"/>
-      <c r="CU149" s="8"/>
-      <c r="CV149" s="8"/>
-      <c r="CW149" s="8"/>
-      <c r="CX149" s="8"/>
-      <c r="CY149" s="8"/>
-      <c r="CZ149" s="8"/>
-      <c r="DA149" s="8"/>
-      <c r="DB149" s="8"/>
-      <c r="DC149" s="8"/>
-      <c r="DD149" s="8"/>
-      <c r="DE149" s="8"/>
-      <c r="DF149" s="8"/>
-      <c r="DG149" s="8"/>
-      <c r="DH149" s="8"/>
-      <c r="DI149" s="8"/>
-      <c r="DJ149" s="8"/>
-      <c r="DK149" s="8"/>
-      <c r="DL149" s="8"/>
-      <c r="DM149" s="8"/>
-      <c r="DN149" s="8"/>
-      <c r="DO149" s="8"/>
-      <c r="DP149" s="8"/>
-      <c r="DQ149" s="8"/>
-      <c r="DR149" s="8"/>
-      <c r="DS149" s="8"/>
-      <c r="DT149" s="8"/>
-      <c r="DU149" s="8"/>
-      <c r="DV149" s="8"/>
-      <c r="DW149" s="8"/>
-      <c r="DX149" s="8"/>
-      <c r="DY149" s="8"/>
-      <c r="DZ149" s="8"/>
-      <c r="EA149" s="8"/>
-      <c r="EB149" s="8"/>
-      <c r="EC149" s="8"/>
-      <c r="ED149" s="8"/>
-      <c r="EE149" s="8"/>
-      <c r="EF149" s="8"/>
-      <c r="EG149" s="8"/>
-      <c r="EH149" s="8"/>
-      <c r="EI149" s="8"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B150" s="8"/>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
-      <c r="H150" s="8"/>
-      <c r="I150" s="8"/>
-      <c r="J150" s="8"/>
-      <c r="K150" s="8"/>
-      <c r="L150" s="8"/>
-      <c r="M150" s="8"/>
-      <c r="N150" s="8"/>
-      <c r="O150" s="8"/>
-      <c r="P150" s="8"/>
-      <c r="Q150" s="8"/>
-      <c r="R150" s="8"/>
-      <c r="S150" s="8"/>
-      <c r="T150" s="8"/>
-      <c r="U150" s="8"/>
-      <c r="V150" s="8"/>
-      <c r="W150" s="8"/>
-      <c r="X150" s="8"/>
-      <c r="Y150" s="8"/>
-      <c r="Z150" s="8"/>
-      <c r="AA150" s="8"/>
-      <c r="AB150" s="8"/>
-      <c r="AC150" s="8"/>
-      <c r="AD150" s="8"/>
-      <c r="AE150" s="8"/>
-      <c r="AF150" s="8"/>
-      <c r="AG150" s="8"/>
-      <c r="AH150" s="8"/>
-      <c r="AI150" s="8"/>
-      <c r="AJ150" s="8"/>
-      <c r="AK150" s="8"/>
-      <c r="AL150" s="8"/>
-      <c r="AM150" s="8"/>
-      <c r="AN150" s="8"/>
-      <c r="AO150" s="8"/>
-      <c r="AP150" s="8"/>
-      <c r="AQ150" s="8"/>
-      <c r="AR150" s="8"/>
-      <c r="AS150" s="8"/>
-      <c r="AT150" s="8"/>
-      <c r="AU150" s="8"/>
-      <c r="AV150" s="8"/>
-      <c r="AW150" s="8"/>
-      <c r="AX150" s="8"/>
-      <c r="AY150" s="8"/>
-      <c r="AZ150" s="8"/>
-      <c r="BA150" s="8"/>
-      <c r="BB150" s="8"/>
-      <c r="BC150" s="8"/>
-      <c r="BD150" s="8"/>
-      <c r="BE150" s="8"/>
-      <c r="BF150" s="8"/>
-      <c r="BG150" s="8"/>
-      <c r="BH150" s="8"/>
-      <c r="BI150" s="8"/>
-      <c r="BJ150" s="8"/>
-      <c r="BK150" s="8"/>
-      <c r="BL150" s="8"/>
-      <c r="BM150" s="8"/>
-      <c r="BN150" s="8"/>
-      <c r="BO150" s="8"/>
-      <c r="BP150" s="8"/>
-      <c r="BQ150" s="8"/>
-      <c r="BR150" s="8"/>
-      <c r="BS150" s="8"/>
-      <c r="BT150" s="8"/>
-      <c r="BU150" s="8"/>
-      <c r="BV150" s="8"/>
-      <c r="BW150" s="8"/>
-      <c r="BX150" s="8"/>
-      <c r="BY150" s="8"/>
-      <c r="BZ150" s="8"/>
-      <c r="CA150" s="8"/>
-      <c r="CB150" s="8"/>
-      <c r="CC150" s="8"/>
-      <c r="CD150" s="8"/>
-      <c r="CE150" s="8"/>
-      <c r="CF150" s="8"/>
-      <c r="CG150" s="8"/>
-      <c r="CH150" s="8"/>
-      <c r="CI150" s="8"/>
-      <c r="CJ150" s="8"/>
-      <c r="CK150" s="8"/>
-      <c r="CL150" s="8"/>
-      <c r="CM150" s="8"/>
-      <c r="CN150" s="8"/>
-      <c r="CO150" s="8"/>
-      <c r="CP150" s="8"/>
-      <c r="CQ150" s="8"/>
-      <c r="CR150" s="8"/>
-      <c r="CS150" s="8"/>
-      <c r="CT150" s="8"/>
-      <c r="CU150" s="8"/>
-      <c r="CV150" s="8"/>
-      <c r="CW150" s="8"/>
-      <c r="CX150" s="8"/>
-      <c r="CY150" s="8"/>
-      <c r="CZ150" s="8"/>
-      <c r="DA150" s="8"/>
-      <c r="DB150" s="8"/>
-      <c r="DC150" s="8"/>
-      <c r="DD150" s="8"/>
-      <c r="DE150" s="8"/>
-      <c r="DF150" s="8"/>
-      <c r="DG150" s="8"/>
-      <c r="DH150" s="8"/>
-      <c r="DI150" s="8"/>
-      <c r="DJ150" s="8"/>
-      <c r="DK150" s="8"/>
-      <c r="DL150" s="8"/>
-      <c r="DM150" s="8"/>
-      <c r="DN150" s="8"/>
-      <c r="DO150" s="8"/>
-      <c r="DP150" s="8"/>
-      <c r="DQ150" s="8"/>
-      <c r="DR150" s="8"/>
-      <c r="DS150" s="8"/>
-      <c r="DT150" s="8"/>
-      <c r="DU150" s="8"/>
-      <c r="DV150" s="8"/>
-      <c r="DW150" s="8"/>
-      <c r="DX150" s="8"/>
-      <c r="DY150" s="8"/>
-      <c r="DZ150" s="8"/>
-      <c r="EA150" s="8"/>
-      <c r="EB150" s="8"/>
-      <c r="EC150" s="8"/>
-      <c r="ED150" s="8"/>
-      <c r="EE150" s="8"/>
-      <c r="EF150" s="8"/>
-      <c r="EG150" s="8"/>
-      <c r="EH150" s="8"/>
-      <c r="EI150" s="8"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B151" s="8"/>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
-      <c r="H151" s="8"/>
-      <c r="I151" s="8"/>
-      <c r="J151" s="8"/>
-      <c r="K151" s="8"/>
-      <c r="L151" s="8"/>
-      <c r="M151" s="8"/>
-      <c r="N151" s="8"/>
-      <c r="O151" s="8"/>
-      <c r="P151" s="8"/>
-      <c r="Q151" s="8"/>
-      <c r="R151" s="8"/>
-      <c r="S151" s="8"/>
-      <c r="T151" s="8"/>
-      <c r="U151" s="8"/>
-      <c r="V151" s="8"/>
-      <c r="W151" s="8"/>
-      <c r="X151" s="8"/>
-      <c r="Y151" s="8"/>
-      <c r="Z151" s="8"/>
-      <c r="AA151" s="8"/>
-      <c r="AB151" s="8"/>
-      <c r="AC151" s="8"/>
-      <c r="AD151" s="8"/>
-      <c r="AE151" s="8"/>
-      <c r="AF151" s="8"/>
-      <c r="AG151" s="8"/>
-      <c r="AH151" s="8"/>
-      <c r="AI151" s="8"/>
-      <c r="AJ151" s="8"/>
-      <c r="AK151" s="8"/>
-      <c r="AL151" s="8"/>
-      <c r="AM151" s="8"/>
-      <c r="AN151" s="8"/>
-      <c r="AO151" s="8"/>
-      <c r="AP151" s="8"/>
-      <c r="AQ151" s="8"/>
-      <c r="AR151" s="8"/>
-      <c r="AS151" s="8"/>
-      <c r="AT151" s="8"/>
-      <c r="AU151" s="8"/>
-      <c r="AV151" s="8"/>
-      <c r="AW151" s="8"/>
-      <c r="AX151" s="8"/>
-      <c r="AY151" s="8"/>
-      <c r="AZ151" s="8"/>
-      <c r="BA151" s="8"/>
-      <c r="BB151" s="8"/>
-      <c r="BC151" s="8"/>
-      <c r="BD151" s="8"/>
-      <c r="BE151" s="8"/>
-      <c r="BF151" s="8"/>
-      <c r="BG151" s="8"/>
-      <c r="BH151" s="8"/>
-      <c r="BI151" s="8"/>
-      <c r="BJ151" s="8"/>
-      <c r="BK151" s="8"/>
-      <c r="BL151" s="8"/>
-      <c r="BM151" s="8"/>
-      <c r="BN151" s="8"/>
-      <c r="BO151" s="8"/>
-      <c r="BP151" s="8"/>
-      <c r="BQ151" s="8"/>
-      <c r="BR151" s="8"/>
-      <c r="BS151" s="8"/>
-      <c r="BT151" s="8"/>
-      <c r="BU151" s="8"/>
-      <c r="BV151" s="8"/>
-      <c r="BW151" s="8"/>
-      <c r="BX151" s="8"/>
-      <c r="BY151" s="8"/>
-      <c r="BZ151" s="8"/>
-      <c r="CA151" s="8"/>
-      <c r="CB151" s="8"/>
-      <c r="CC151" s="8"/>
-      <c r="CD151" s="8"/>
-      <c r="CE151" s="8"/>
-      <c r="CF151" s="8"/>
-      <c r="CG151" s="8"/>
-      <c r="CH151" s="8"/>
-      <c r="CI151" s="8"/>
-      <c r="CJ151" s="8"/>
-      <c r="CK151" s="8"/>
-      <c r="CL151" s="8"/>
-      <c r="CM151" s="8"/>
-      <c r="CN151" s="8"/>
-      <c r="CO151" s="8"/>
-      <c r="CP151" s="8"/>
-      <c r="CQ151" s="8"/>
-      <c r="CR151" s="8"/>
-      <c r="CS151" s="8"/>
-      <c r="CT151" s="8"/>
-      <c r="CU151" s="8"/>
-      <c r="CV151" s="8"/>
-      <c r="CW151" s="8"/>
-      <c r="CX151" s="8"/>
-      <c r="CY151" s="8"/>
-      <c r="CZ151" s="8"/>
-      <c r="DA151" s="8"/>
-      <c r="DB151" s="8"/>
-      <c r="DC151" s="8"/>
-      <c r="DD151" s="8"/>
-      <c r="DE151" s="8"/>
-      <c r="DF151" s="8"/>
-      <c r="DG151" s="8"/>
-      <c r="DH151" s="8"/>
-      <c r="DI151" s="8"/>
-      <c r="DJ151" s="8"/>
-      <c r="DK151" s="8"/>
-      <c r="DL151" s="8"/>
-      <c r="DM151" s="8"/>
-      <c r="DN151" s="8"/>
-      <c r="DO151" s="8"/>
-      <c r="DP151" s="8"/>
-      <c r="DQ151" s="8"/>
-      <c r="DR151" s="8"/>
-      <c r="DS151" s="8"/>
-      <c r="DT151" s="8"/>
-      <c r="DU151" s="8"/>
-      <c r="DV151" s="8"/>
-      <c r="DW151" s="8"/>
-      <c r="DX151" s="8"/>
-      <c r="DY151" s="8"/>
-      <c r="DZ151" s="8"/>
-      <c r="EA151" s="8"/>
-      <c r="EB151" s="8"/>
-      <c r="EC151" s="8"/>
-      <c r="ED151" s="8"/>
-      <c r="EE151" s="8"/>
-      <c r="EF151" s="8"/>
-      <c r="EG151" s="8"/>
-      <c r="EH151" s="8"/>
-      <c r="EI151" s="8"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B152" s="8"/>
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
-      <c r="E152" s="8"/>
-      <c r="F152" s="8"/>
-      <c r="G152" s="8"/>
-      <c r="H152" s="8"/>
-      <c r="I152" s="8"/>
-      <c r="J152" s="8"/>
-      <c r="K152" s="8"/>
-      <c r="L152" s="8"/>
-      <c r="M152" s="8"/>
-      <c r="N152" s="8"/>
-      <c r="O152" s="8"/>
-      <c r="P152" s="8"/>
-      <c r="Q152" s="8"/>
-      <c r="R152" s="8"/>
-      <c r="S152" s="8"/>
-      <c r="T152" s="8"/>
-      <c r="U152" s="8"/>
-      <c r="V152" s="8"/>
-      <c r="W152" s="8"/>
-      <c r="X152" s="8"/>
-      <c r="Y152" s="8"/>
-      <c r="Z152" s="8"/>
-      <c r="AA152" s="8"/>
-      <c r="AB152" s="8"/>
-      <c r="AC152" s="8"/>
-      <c r="AD152" s="8"/>
-      <c r="AE152" s="8"/>
-      <c r="AF152" s="8"/>
-      <c r="AG152" s="8"/>
-      <c r="AH152" s="8"/>
-      <c r="AI152" s="8"/>
-      <c r="AJ152" s="8"/>
-      <c r="AK152" s="8"/>
-      <c r="AL152" s="8"/>
-      <c r="AM152" s="8"/>
-      <c r="AN152" s="8"/>
-      <c r="AO152" s="8"/>
-      <c r="AP152" s="8"/>
-      <c r="AQ152" s="8"/>
-      <c r="AR152" s="8"/>
-      <c r="AS152" s="8"/>
-      <c r="AT152" s="8"/>
-      <c r="AU152" s="8"/>
-      <c r="AV152" s="8"/>
-      <c r="AW152" s="8"/>
-      <c r="AX152" s="8"/>
-      <c r="AY152" s="8"/>
-      <c r="AZ152" s="8"/>
-      <c r="BA152" s="8"/>
-      <c r="BB152" s="8"/>
-      <c r="BC152" s="8"/>
-      <c r="BD152" s="8"/>
-      <c r="BE152" s="8"/>
-      <c r="BF152" s="8"/>
-      <c r="BG152" s="8"/>
-      <c r="BH152" s="8"/>
-      <c r="BI152" s="8"/>
-      <c r="BJ152" s="8"/>
-      <c r="BK152" s="8"/>
-      <c r="BL152" s="8"/>
-      <c r="BM152" s="8"/>
-      <c r="BN152" s="8"/>
-      <c r="BO152" s="8"/>
-      <c r="BP152" s="8"/>
-      <c r="BQ152" s="8"/>
-      <c r="BR152" s="8"/>
-      <c r="BS152" s="8"/>
-      <c r="BT152" s="8"/>
-      <c r="BU152" s="8"/>
-      <c r="BV152" s="8"/>
-      <c r="BW152" s="8"/>
-      <c r="BX152" s="8"/>
-      <c r="BY152" s="8"/>
-      <c r="BZ152" s="8"/>
-      <c r="CA152" s="8"/>
-      <c r="CB152" s="8"/>
-      <c r="CC152" s="8"/>
-      <c r="CD152" s="8"/>
-      <c r="CE152" s="8"/>
-      <c r="CF152" s="8"/>
-      <c r="CG152" s="8"/>
-      <c r="CH152" s="8"/>
-      <c r="CI152" s="8"/>
-      <c r="CJ152" s="8"/>
-      <c r="CK152" s="8"/>
-      <c r="CL152" s="8"/>
-      <c r="CM152" s="8"/>
-      <c r="CN152" s="8"/>
-      <c r="CO152" s="8"/>
-      <c r="CP152" s="8"/>
-      <c r="CQ152" s="8"/>
-      <c r="CR152" s="8"/>
-      <c r="CS152" s="8"/>
-      <c r="CT152" s="8"/>
-      <c r="CU152" s="8"/>
-      <c r="CV152" s="8"/>
-      <c r="CW152" s="8"/>
-      <c r="CX152" s="8"/>
-      <c r="CY152" s="8"/>
-      <c r="CZ152" s="8"/>
-      <c r="DA152" s="8"/>
-      <c r="DB152" s="8"/>
-      <c r="DC152" s="8"/>
-      <c r="DD152" s="8"/>
-      <c r="DE152" s="8"/>
-      <c r="DF152" s="8"/>
-      <c r="DG152" s="8"/>
-      <c r="DH152" s="8"/>
-      <c r="DI152" s="8"/>
-      <c r="DJ152" s="8"/>
-      <c r="DK152" s="8"/>
-      <c r="DL152" s="8"/>
-      <c r="DM152" s="8"/>
-      <c r="DN152" s="8"/>
-      <c r="DO152" s="8"/>
-      <c r="DP152" s="8"/>
-      <c r="DQ152" s="8"/>
-      <c r="DR152" s="8"/>
-      <c r="DS152" s="8"/>
-      <c r="DT152" s="8"/>
-      <c r="DU152" s="8"/>
-      <c r="DV152" s="8"/>
-      <c r="DW152" s="8"/>
-      <c r="DX152" s="8"/>
-      <c r="DY152" s="8"/>
-      <c r="DZ152" s="8"/>
-      <c r="EA152" s="8"/>
-      <c r="EB152" s="8"/>
-      <c r="EC152" s="8"/>
-      <c r="ED152" s="8"/>
-      <c r="EE152" s="8"/>
-      <c r="EF152" s="8"/>
-      <c r="EG152" s="8"/>
-      <c r="EH152" s="8"/>
-      <c r="EI152" s="8"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B153" s="8"/>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="8"/>
-      <c r="H153" s="8"/>
-      <c r="I153" s="8"/>
-      <c r="J153" s="8"/>
-      <c r="K153" s="8"/>
-      <c r="L153" s="8"/>
-      <c r="M153" s="8"/>
-      <c r="N153" s="8"/>
-      <c r="O153" s="8"/>
-      <c r="P153" s="8"/>
-      <c r="Q153" s="8"/>
-      <c r="R153" s="8"/>
-      <c r="S153" s="8"/>
-      <c r="T153" s="8"/>
-      <c r="U153" s="8"/>
-      <c r="V153" s="8"/>
-      <c r="W153" s="8"/>
-      <c r="X153" s="8"/>
-      <c r="Y153" s="8"/>
-      <c r="Z153" s="8"/>
-      <c r="AA153" s="8"/>
-      <c r="AB153" s="8"/>
-      <c r="AC153" s="8"/>
-      <c r="AD153" s="8"/>
-      <c r="AE153" s="8"/>
-      <c r="AF153" s="8"/>
-      <c r="AG153" s="8"/>
-      <c r="AH153" s="8"/>
-      <c r="AI153" s="8"/>
-      <c r="AJ153" s="8"/>
-      <c r="AK153" s="8"/>
-      <c r="AL153" s="8"/>
-      <c r="AM153" s="8"/>
-      <c r="AN153" s="8"/>
-      <c r="AO153" s="8"/>
-      <c r="AP153" s="8"/>
-      <c r="AQ153" s="8"/>
-      <c r="AR153" s="8"/>
-      <c r="AS153" s="8"/>
-      <c r="AT153" s="8"/>
-      <c r="AU153" s="8"/>
-      <c r="AV153" s="8"/>
-      <c r="AW153" s="8"/>
-      <c r="AX153" s="8"/>
-      <c r="AY153" s="8"/>
-      <c r="AZ153" s="8"/>
-      <c r="BA153" s="8"/>
-      <c r="BB153" s="8"/>
-      <c r="BC153" s="8"/>
-      <c r="BD153" s="8"/>
-      <c r="BE153" s="8"/>
-      <c r="BF153" s="8"/>
-      <c r="BG153" s="8"/>
-      <c r="BH153" s="8"/>
-      <c r="BI153" s="8"/>
-      <c r="BJ153" s="8"/>
-      <c r="BK153" s="8"/>
-      <c r="BL153" s="8"/>
-      <c r="BM153" s="8"/>
-      <c r="BN153" s="8"/>
-      <c r="BO153" s="8"/>
-      <c r="BP153" s="8"/>
-      <c r="BQ153" s="8"/>
-      <c r="BR153" s="8"/>
-      <c r="BS153" s="8"/>
-      <c r="BT153" s="8"/>
-      <c r="BU153" s="8"/>
-      <c r="BV153" s="8"/>
-      <c r="BW153" s="8"/>
-      <c r="BX153" s="8"/>
-      <c r="BY153" s="8"/>
-      <c r="BZ153" s="8"/>
-      <c r="CA153" s="8"/>
-      <c r="CB153" s="8"/>
-      <c r="CC153" s="8"/>
-      <c r="CD153" s="8"/>
-      <c r="CE153" s="8"/>
-      <c r="CF153" s="8"/>
-      <c r="CG153" s="8"/>
-      <c r="CH153" s="8"/>
-      <c r="CI153" s="8"/>
-      <c r="CJ153" s="8"/>
-      <c r="CK153" s="8"/>
-      <c r="CL153" s="8"/>
-      <c r="CM153" s="8"/>
-      <c r="CN153" s="8"/>
-      <c r="CO153" s="8"/>
-      <c r="CP153" s="8"/>
-      <c r="CQ153" s="8"/>
-      <c r="CR153" s="8"/>
-      <c r="CS153" s="8"/>
-      <c r="CT153" s="8"/>
-      <c r="CU153" s="8"/>
-      <c r="CV153" s="8"/>
-      <c r="CW153" s="8"/>
-      <c r="CX153" s="8"/>
-      <c r="CY153" s="8"/>
-      <c r="CZ153" s="8"/>
-      <c r="DA153" s="8"/>
-      <c r="DB153" s="8"/>
-      <c r="DC153" s="8"/>
-      <c r="DD153" s="8"/>
-      <c r="DE153" s="8"/>
-      <c r="DF153" s="8"/>
-      <c r="DG153" s="8"/>
-      <c r="DH153" s="8"/>
-      <c r="DI153" s="8"/>
-      <c r="DJ153" s="8"/>
-      <c r="DK153" s="8"/>
-      <c r="DL153" s="8"/>
-      <c r="DM153" s="8"/>
-      <c r="DN153" s="8"/>
-      <c r="DO153" s="8"/>
-      <c r="DP153" s="8"/>
-      <c r="DQ153" s="8"/>
-      <c r="DR153" s="8"/>
-      <c r="DS153" s="8"/>
-      <c r="DT153" s="8"/>
-      <c r="DU153" s="8"/>
-      <c r="DV153" s="8"/>
-      <c r="DW153" s="8"/>
-      <c r="DX153" s="8"/>
-      <c r="DY153" s="8"/>
-      <c r="DZ153" s="8"/>
-      <c r="EA153" s="8"/>
-      <c r="EB153" s="8"/>
-      <c r="EC153" s="8"/>
-      <c r="ED153" s="8"/>
-      <c r="EE153" s="8"/>
-      <c r="EF153" s="8"/>
-      <c r="EG153" s="8"/>
-      <c r="EH153" s="8"/>
-      <c r="EI153" s="8"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B154" s="8"/>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8"/>
-      <c r="G154" s="8"/>
-      <c r="H154" s="8"/>
-      <c r="I154" s="8"/>
-      <c r="J154" s="8"/>
-      <c r="K154" s="8"/>
-      <c r="L154" s="8"/>
-      <c r="M154" s="8"/>
-      <c r="N154" s="8"/>
-      <c r="O154" s="8"/>
-      <c r="P154" s="8"/>
-      <c r="Q154" s="8"/>
-      <c r="R154" s="8"/>
-      <c r="S154" s="8"/>
-      <c r="T154" s="8"/>
-      <c r="U154" s="8"/>
-      <c r="V154" s="8"/>
-      <c r="W154" s="8"/>
-      <c r="X154" s="8"/>
-      <c r="Y154" s="8"/>
-      <c r="Z154" s="8"/>
-      <c r="AA154" s="8"/>
-      <c r="AB154" s="8"/>
-      <c r="AC154" s="8"/>
-      <c r="AD154" s="8"/>
-      <c r="AE154" s="8"/>
-      <c r="AF154" s="8"/>
-      <c r="AG154" s="8"/>
-      <c r="AH154" s="8"/>
-      <c r="AI154" s="8"/>
-      <c r="AJ154" s="8"/>
-      <c r="AK154" s="8"/>
-      <c r="AL154" s="8"/>
-      <c r="AM154" s="8"/>
-      <c r="AN154" s="8"/>
-      <c r="AO154" s="8"/>
-      <c r="AP154" s="8"/>
-      <c r="AQ154" s="8"/>
-      <c r="AR154" s="8"/>
-      <c r="AS154" s="8"/>
-      <c r="AT154" s="8"/>
-      <c r="AU154" s="8"/>
-      <c r="AV154" s="8"/>
-      <c r="AW154" s="8"/>
-      <c r="AX154" s="8"/>
-      <c r="AY154" s="8"/>
-      <c r="AZ154" s="8"/>
-      <c r="BA154" s="8"/>
-      <c r="BB154" s="8"/>
-      <c r="BC154" s="8"/>
-      <c r="BD154" s="8"/>
-      <c r="BE154" s="8"/>
-      <c r="BF154" s="8"/>
-      <c r="BG154" s="8"/>
-      <c r="BH154" s="8"/>
-      <c r="BI154" s="8"/>
-      <c r="BJ154" s="8"/>
-      <c r="BK154" s="8"/>
-      <c r="BL154" s="8"/>
-      <c r="BM154" s="8"/>
-      <c r="BN154" s="8"/>
-      <c r="BO154" s="8"/>
-      <c r="BP154" s="8"/>
-      <c r="BQ154" s="8"/>
-      <c r="BR154" s="8"/>
-      <c r="BS154" s="8"/>
-      <c r="BT154" s="8"/>
-      <c r="BU154" s="8"/>
-      <c r="BV154" s="8"/>
-      <c r="BW154" s="8"/>
-      <c r="BX154" s="8"/>
-      <c r="BY154" s="8"/>
-      <c r="BZ154" s="8"/>
-      <c r="CA154" s="8"/>
-      <c r="CB154" s="8"/>
-      <c r="CC154" s="8"/>
-      <c r="CD154" s="8"/>
-      <c r="CE154" s="8"/>
-      <c r="CF154" s="8"/>
-      <c r="CG154" s="8"/>
-      <c r="CH154" s="8"/>
-      <c r="CI154" s="8"/>
-      <c r="CJ154" s="8"/>
-      <c r="CK154" s="8"/>
-      <c r="CL154" s="8"/>
-      <c r="CM154" s="8"/>
-      <c r="CN154" s="8"/>
-      <c r="CO154" s="8"/>
-      <c r="CP154" s="8"/>
-      <c r="CQ154" s="8"/>
-      <c r="CR154" s="8"/>
-      <c r="CS154" s="8"/>
-      <c r="CT154" s="8"/>
-      <c r="CU154" s="8"/>
-      <c r="CV154" s="8"/>
-      <c r="CW154" s="8"/>
-      <c r="CX154" s="8"/>
-      <c r="CY154" s="8"/>
-      <c r="CZ154" s="8"/>
-      <c r="DA154" s="8"/>
-      <c r="DB154" s="8"/>
-      <c r="DC154" s="8"/>
-      <c r="DD154" s="8"/>
-      <c r="DE154" s="8"/>
-      <c r="DF154" s="8"/>
-      <c r="DG154" s="8"/>
-      <c r="DH154" s="8"/>
-      <c r="DI154" s="8"/>
-      <c r="DJ154" s="8"/>
-      <c r="DK154" s="8"/>
-      <c r="DL154" s="8"/>
-      <c r="DM154" s="8"/>
-      <c r="DN154" s="8"/>
-      <c r="DO154" s="8"/>
-      <c r="DP154" s="8"/>
-      <c r="DQ154" s="8"/>
-      <c r="DR154" s="8"/>
-      <c r="DS154" s="8"/>
-      <c r="DT154" s="8"/>
-      <c r="DU154" s="8"/>
-      <c r="DV154" s="8"/>
-      <c r="DW154" s="8"/>
-      <c r="DX154" s="8"/>
-      <c r="DY154" s="8"/>
-      <c r="DZ154" s="8"/>
-      <c r="EA154" s="8"/>
-      <c r="EB154" s="8"/>
-      <c r="EC154" s="8"/>
-      <c r="ED154" s="8"/>
-      <c r="EE154" s="8"/>
-      <c r="EF154" s="8"/>
-      <c r="EG154" s="8"/>
-      <c r="EH154" s="8"/>
-      <c r="EI154" s="8"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="7" t="str">
-        <f t="shared" ref="A155:A157" si="2">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B155" s="8"/>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
-      <c r="G155" s="8"/>
-      <c r="H155" s="8"/>
-      <c r="I155" s="8"/>
-      <c r="J155" s="8"/>
-      <c r="K155" s="8"/>
-      <c r="L155" s="8"/>
-      <c r="M155" s="8"/>
-      <c r="N155" s="8"/>
-      <c r="O155" s="8"/>
-      <c r="P155" s="8"/>
-      <c r="Q155" s="8"/>
-      <c r="R155" s="8"/>
-      <c r="S155" s="8"/>
-      <c r="T155" s="8"/>
-      <c r="U155" s="8"/>
-      <c r="V155" s="8"/>
-      <c r="W155" s="8"/>
-      <c r="X155" s="8"/>
-      <c r="Y155" s="8"/>
-      <c r="Z155" s="8"/>
-      <c r="AA155" s="8"/>
-      <c r="AB155" s="8"/>
-      <c r="AC155" s="8"/>
-      <c r="AD155" s="8"/>
-      <c r="AE155" s="8"/>
-      <c r="AF155" s="8"/>
-      <c r="AG155" s="8"/>
-      <c r="AH155" s="8"/>
-      <c r="AI155" s="8"/>
-      <c r="AJ155" s="8"/>
-      <c r="AK155" s="8"/>
-      <c r="AL155" s="8"/>
-      <c r="AM155" s="8"/>
-      <c r="AN155" s="8"/>
-      <c r="AO155" s="8"/>
-      <c r="AP155" s="8"/>
-      <c r="AQ155" s="8"/>
-      <c r="AR155" s="8"/>
-      <c r="AS155" s="8"/>
-      <c r="AT155" s="8"/>
-      <c r="AU155" s="8"/>
-      <c r="AV155" s="8"/>
-      <c r="AW155" s="8"/>
-      <c r="AX155" s="8"/>
-      <c r="AY155" s="8"/>
-      <c r="AZ155" s="8"/>
-      <c r="BA155" s="8"/>
-      <c r="BB155" s="8"/>
-      <c r="BC155" s="8"/>
-      <c r="BD155" s="8"/>
-      <c r="BE155" s="8"/>
-      <c r="BF155" s="8"/>
-      <c r="BG155" s="8"/>
-      <c r="BH155" s="8"/>
-      <c r="BI155" s="8"/>
-      <c r="BJ155" s="8"/>
-      <c r="BK155" s="8"/>
-      <c r="BL155" s="8"/>
-      <c r="BM155" s="8"/>
-      <c r="BN155" s="8"/>
-      <c r="BO155" s="8"/>
-      <c r="BP155" s="8"/>
-      <c r="BQ155" s="8"/>
-      <c r="BR155" s="8"/>
-      <c r="BS155" s="8"/>
-      <c r="BT155" s="8"/>
-      <c r="BU155" s="8"/>
-      <c r="BV155" s="8"/>
-      <c r="BW155" s="8"/>
-      <c r="BX155" s="8"/>
-      <c r="BY155" s="8"/>
-      <c r="BZ155" s="8"/>
-      <c r="CA155" s="8"/>
-      <c r="CB155" s="8"/>
-      <c r="CC155" s="8"/>
-      <c r="CD155" s="8"/>
-      <c r="CE155" s="8"/>
-      <c r="CF155" s="8"/>
-      <c r="CG155" s="8"/>
-      <c r="CH155" s="8"/>
-      <c r="CI155" s="8"/>
-      <c r="CJ155" s="8"/>
-      <c r="CK155" s="8"/>
-      <c r="CL155" s="8"/>
-      <c r="CM155" s="8"/>
-      <c r="CN155" s="8"/>
-      <c r="CO155" s="8"/>
-      <c r="CP155" s="8"/>
-      <c r="CQ155" s="8"/>
-      <c r="CR155" s="8"/>
-      <c r="CS155" s="8"/>
-      <c r="CT155" s="8"/>
-      <c r="CU155" s="8"/>
-      <c r="CV155" s="8"/>
-      <c r="CW155" s="8"/>
-      <c r="CX155" s="8"/>
-      <c r="CY155" s="8"/>
-      <c r="CZ155" s="8"/>
-      <c r="DA155" s="8"/>
-      <c r="DB155" s="8"/>
-      <c r="DC155" s="8"/>
-      <c r="DD155" s="8"/>
-      <c r="DE155" s="8"/>
-      <c r="DF155" s="8"/>
-      <c r="DG155" s="8"/>
-      <c r="DH155" s="8"/>
-      <c r="DI155" s="8"/>
-      <c r="DJ155" s="8"/>
-      <c r="DK155" s="8"/>
-      <c r="DL155" s="8"/>
-      <c r="DM155" s="8"/>
-      <c r="DN155" s="8"/>
-      <c r="DO155" s="8"/>
-      <c r="DP155" s="8"/>
-      <c r="DQ155" s="8"/>
-      <c r="DR155" s="8"/>
-      <c r="DS155" s="8"/>
-      <c r="DT155" s="8"/>
-      <c r="DU155" s="8"/>
-      <c r="DV155" s="8"/>
-      <c r="DW155" s="8"/>
-      <c r="DX155" s="8"/>
-      <c r="DY155" s="8"/>
-      <c r="DZ155" s="8"/>
-      <c r="EA155" s="8"/>
-      <c r="EB155" s="8"/>
-      <c r="EC155" s="8"/>
-      <c r="ED155" s="8"/>
-      <c r="EE155" s="8"/>
-      <c r="EF155" s="8"/>
-      <c r="EG155" s="8"/>
-      <c r="EH155" s="8"/>
-      <c r="EI155" s="8"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B156" s="8"/>
-      <c r="C156" s="8"/>
-      <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
-      <c r="F156" s="8"/>
-      <c r="G156" s="8"/>
-      <c r="H156" s="8"/>
-      <c r="I156" s="8"/>
-      <c r="J156" s="8"/>
-      <c r="K156" s="8"/>
-      <c r="L156" s="8"/>
-      <c r="M156" s="8"/>
-      <c r="N156" s="8"/>
-      <c r="O156" s="8"/>
-      <c r="P156" s="8"/>
-      <c r="Q156" s="8"/>
-      <c r="R156" s="8"/>
-      <c r="S156" s="8"/>
-      <c r="T156" s="8"/>
-      <c r="U156" s="8"/>
-      <c r="V156" s="8"/>
-      <c r="W156" s="8"/>
-      <c r="X156" s="8"/>
-      <c r="Y156" s="8"/>
-      <c r="Z156" s="8"/>
-      <c r="AA156" s="8"/>
-      <c r="AB156" s="8"/>
-      <c r="AC156" s="8"/>
-      <c r="AD156" s="8"/>
-      <c r="AE156" s="8"/>
-      <c r="AF156" s="8"/>
-      <c r="AG156" s="8"/>
-      <c r="AH156" s="8"/>
-      <c r="AI156" s="8"/>
-      <c r="AJ156" s="8"/>
-      <c r="AK156" s="8"/>
-      <c r="AL156" s="8"/>
-      <c r="AM156" s="8"/>
-      <c r="AN156" s="8"/>
-      <c r="AO156" s="8"/>
-      <c r="AP156" s="8"/>
-      <c r="AQ156" s="8"/>
-      <c r="AR156" s="8"/>
-      <c r="AS156" s="8"/>
-      <c r="AT156" s="8"/>
-      <c r="AU156" s="8"/>
-      <c r="AV156" s="8"/>
-      <c r="AW156" s="8"/>
-      <c r="AX156" s="8"/>
-      <c r="AY156" s="8"/>
-      <c r="AZ156" s="8"/>
-      <c r="BA156" s="8"/>
-      <c r="BB156" s="8"/>
-      <c r="BC156" s="8"/>
-      <c r="BD156" s="8"/>
-      <c r="BE156" s="8"/>
-      <c r="BF156" s="8"/>
-      <c r="BG156" s="8"/>
-      <c r="BH156" s="8"/>
-      <c r="BI156" s="8"/>
-      <c r="BJ156" s="8"/>
-      <c r="BK156" s="8"/>
-      <c r="BL156" s="8"/>
-      <c r="BM156" s="8"/>
-      <c r="BN156" s="8"/>
-      <c r="BO156" s="8"/>
-      <c r="BP156" s="8"/>
-      <c r="BQ156" s="8"/>
-      <c r="BR156" s="8"/>
-      <c r="BS156" s="8"/>
-      <c r="BT156" s="8"/>
-      <c r="BU156" s="8"/>
-      <c r="BV156" s="8"/>
-      <c r="BW156" s="8"/>
-      <c r="BX156" s="8"/>
-      <c r="BY156" s="8"/>
-      <c r="BZ156" s="8"/>
-      <c r="CA156" s="8"/>
-      <c r="CB156" s="8"/>
-      <c r="CC156" s="8"/>
-      <c r="CD156" s="8"/>
-      <c r="CE156" s="8"/>
-      <c r="CF156" s="8"/>
-      <c r="CG156" s="8"/>
-      <c r="CH156" s="8"/>
-      <c r="CI156" s="8"/>
-      <c r="CJ156" s="8"/>
-      <c r="CK156" s="8"/>
-      <c r="CL156" s="8"/>
-      <c r="CM156" s="8"/>
-      <c r="CN156" s="8"/>
-      <c r="CO156" s="8"/>
-      <c r="CP156" s="8"/>
-      <c r="CQ156" s="8"/>
-      <c r="CR156" s="8"/>
-      <c r="CS156" s="8"/>
-      <c r="CT156" s="8"/>
-      <c r="CU156" s="8"/>
-      <c r="CV156" s="8"/>
-      <c r="CW156" s="8"/>
-      <c r="CX156" s="8"/>
-      <c r="CY156" s="8"/>
-      <c r="CZ156" s="8"/>
-      <c r="DA156" s="8"/>
-      <c r="DB156" s="8"/>
-      <c r="DC156" s="8"/>
-      <c r="DD156" s="8"/>
-      <c r="DE156" s="8"/>
-      <c r="DF156" s="8"/>
-      <c r="DG156" s="8"/>
-      <c r="DH156" s="8"/>
-      <c r="DI156" s="8"/>
-      <c r="DJ156" s="8"/>
-      <c r="DK156" s="8"/>
-      <c r="DL156" s="8"/>
-      <c r="DM156" s="8"/>
-      <c r="DN156" s="8"/>
-      <c r="DO156" s="8"/>
-      <c r="DP156" s="8"/>
-      <c r="DQ156" s="8"/>
-      <c r="DR156" s="8"/>
-      <c r="DS156" s="8"/>
-      <c r="DT156" s="8"/>
-      <c r="DU156" s="8"/>
-      <c r="DV156" s="8"/>
-      <c r="DW156" s="8"/>
-      <c r="DX156" s="8"/>
-      <c r="DY156" s="8"/>
-      <c r="DZ156" s="8"/>
-      <c r="EA156" s="8"/>
-      <c r="EB156" s="8"/>
-      <c r="EC156" s="8"/>
-      <c r="ED156" s="8"/>
-      <c r="EE156" s="8"/>
-      <c r="EF156" s="8"/>
-      <c r="EG156" s="8"/>
-      <c r="EH156" s="8"/>
-      <c r="EI156" s="8"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B157" s="8"/>
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
-      <c r="F157" s="8"/>
-      <c r="G157" s="8"/>
-      <c r="H157" s="8"/>
-      <c r="I157" s="8"/>
-      <c r="J157" s="8"/>
-      <c r="K157" s="8"/>
-      <c r="L157" s="8"/>
-      <c r="M157" s="8"/>
-      <c r="N157" s="8"/>
-      <c r="O157" s="8"/>
-      <c r="P157" s="8"/>
-      <c r="Q157" s="8"/>
-      <c r="R157" s="8"/>
-      <c r="S157" s="8"/>
-      <c r="T157" s="8"/>
-      <c r="U157" s="8"/>
-      <c r="V157" s="8"/>
-      <c r="W157" s="8"/>
-      <c r="X157" s="8"/>
-      <c r="Y157" s="8"/>
-      <c r="Z157" s="8"/>
-      <c r="AA157" s="8"/>
-      <c r="AB157" s="8"/>
-      <c r="AC157" s="8"/>
-      <c r="AD157" s="8"/>
-      <c r="AE157" s="8"/>
-      <c r="AF157" s="8"/>
-      <c r="AG157" s="8"/>
-      <c r="AH157" s="8"/>
-      <c r="AI157" s="8"/>
-      <c r="AJ157" s="8"/>
-      <c r="AK157" s="8"/>
-      <c r="AL157" s="8"/>
-      <c r="AM157" s="8"/>
-      <c r="AN157" s="8"/>
-      <c r="AO157" s="8"/>
-      <c r="AP157" s="8"/>
-      <c r="AQ157" s="8"/>
-      <c r="AR157" s="8"/>
-      <c r="AS157" s="8"/>
-      <c r="AT157" s="8"/>
-      <c r="AU157" s="8"/>
-      <c r="AV157" s="8"/>
-      <c r="AW157" s="8"/>
-      <c r="AX157" s="8"/>
-      <c r="AY157" s="8"/>
-      <c r="AZ157" s="8"/>
-      <c r="BA157" s="8"/>
-      <c r="BB157" s="8"/>
-      <c r="BC157" s="8"/>
-      <c r="BD157" s="8"/>
-      <c r="BE157" s="8"/>
-      <c r="BF157" s="8"/>
-      <c r="BG157" s="8"/>
-      <c r="BH157" s="8"/>
-      <c r="BI157" s="8"/>
-      <c r="BJ157" s="8"/>
-      <c r="BK157" s="8"/>
-      <c r="BL157" s="8"/>
-      <c r="BM157" s="8"/>
-      <c r="BN157" s="8"/>
-      <c r="BO157" s="8"/>
-      <c r="BP157" s="8"/>
-      <c r="BQ157" s="8"/>
-      <c r="BR157" s="8"/>
-      <c r="BS157" s="8"/>
-      <c r="BT157" s="8"/>
-      <c r="BU157" s="8"/>
-      <c r="BV157" s="8"/>
-      <c r="BW157" s="8"/>
-      <c r="BX157" s="8"/>
-      <c r="BY157" s="8"/>
-      <c r="BZ157" s="8"/>
-      <c r="CA157" s="8"/>
-      <c r="CB157" s="8"/>
-      <c r="CC157" s="8"/>
-      <c r="CD157" s="8"/>
-      <c r="CE157" s="8"/>
-      <c r="CF157" s="8"/>
-      <c r="CG157" s="8"/>
-      <c r="CH157" s="8"/>
-      <c r="CI157" s="8"/>
-      <c r="CJ157" s="8"/>
-      <c r="CK157" s="8"/>
-      <c r="CL157" s="8"/>
-      <c r="CM157" s="8"/>
-      <c r="CN157" s="8"/>
-      <c r="CO157" s="8"/>
-      <c r="CP157" s="8"/>
-      <c r="CQ157" s="8"/>
-      <c r="CR157" s="8"/>
-      <c r="CS157" s="8"/>
-      <c r="CT157" s="8"/>
-      <c r="CU157" s="8"/>
-      <c r="CV157" s="8"/>
-      <c r="CW157" s="8"/>
-      <c r="CX157" s="8"/>
-      <c r="CY157" s="8"/>
-      <c r="CZ157" s="8"/>
-      <c r="DA157" s="8"/>
-      <c r="DB157" s="8"/>
-      <c r="DC157" s="8"/>
-      <c r="DD157" s="8"/>
-      <c r="DE157" s="8"/>
-      <c r="DF157" s="8"/>
-      <c r="DG157" s="8"/>
-      <c r="DH157" s="8"/>
-      <c r="DI157" s="8"/>
-      <c r="DJ157" s="8"/>
-      <c r="DK157" s="8"/>
-      <c r="DL157" s="8"/>
-      <c r="DM157" s="8"/>
-      <c r="DN157" s="8"/>
-      <c r="DO157" s="8"/>
-      <c r="DP157" s="8"/>
-      <c r="DQ157" s="8"/>
-      <c r="DR157" s="8"/>
-      <c r="DS157" s="8"/>
-      <c r="DT157" s="8"/>
-      <c r="DU157" s="8"/>
-      <c r="DV157" s="8"/>
-      <c r="DW157" s="8"/>
-      <c r="DX157" s="8"/>
-      <c r="DY157" s="8"/>
-      <c r="DZ157" s="8"/>
-      <c r="EA157" s="8"/>
-      <c r="EB157" s="8"/>
-      <c r="EC157" s="8"/>
-      <c r="ED157" s="8"/>
-      <c r="EE157" s="8"/>
-      <c r="EF157" s="8"/>
-      <c r="EG157" s="8"/>
-      <c r="EH157" s="8"/>
-      <c r="EI157" s="8"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
